--- a/Data/fuel_consumption_by_ship_size.xlsx
+++ b/Data/fuel_consumption_by_ship_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\nss-data-analytics\3 Capstone\capstone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8032F9-14D3-4354-8A1C-17C7176C13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928A166-9101-4854-9C67-5F1A3BB5976D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="15576" windowHeight="11136" activeTab="3" xr2:uid="{122B9357-4DC1-43F7-9C1B-D0E0C9BBADD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{122B9357-4DC1-43F7-9C1B-D0E0C9BBADD0}"/>
   </bookViews>
   <sheets>
     <sheet name="original data" sheetId="1" r:id="rId1"/>
@@ -22026,8 +22026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CF7575-8F61-47B9-BA82-FB4BFCC76B52}">
   <dimension ref="A1:N430"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22045,7 +22045,7 @@
     <col min="11" max="11" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -22134,11 +22134,11 @@
         <v>160.56945160000001</v>
       </c>
       <c r="M2" s="3">
-        <f>H2/J2</f>
-        <v>4.0770066098586728</v>
+        <f>D2*K2</f>
+        <v>1647.57374925</v>
       </c>
       <c r="N2" s="1">
-        <v>4.0770066098586728</v>
+        <v>1647.57374925</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -22182,11 +22182,11 @@
         <v>163.0906344</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M66" si="3">H3/J3</f>
-        <v>3.9809155400267895</v>
+        <f t="shared" ref="M3:N66" si="3">D3*K3</f>
+        <v>1622.104198</v>
       </c>
       <c r="N3" s="1">
-        <v>3.9809155400267895</v>
+        <v>1622.104198</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -22231,10 +22231,10 @@
       </c>
       <c r="M4" s="3">
         <f t="shared" si="3"/>
-        <v>3.8450854821294227</v>
+        <v>1585.28280625</v>
       </c>
       <c r="N4" s="1">
-        <v>3.8450854821294227</v>
+        <v>1585.28280625</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -22279,10 +22279,10 @@
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
-        <v>3.7903153733921706</v>
+        <v>1577.4344013999998</v>
       </c>
       <c r="N5" s="1">
-        <v>3.7903153733921706</v>
+        <v>1577.4344013999998</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -22327,10 +22327,10 @@
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>3.7438404417218893</v>
+        <v>1567.2098084499999</v>
       </c>
       <c r="N6" s="1">
-        <v>3.7438404417218893</v>
+        <v>1567.2098084499999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -22375,10 +22375,10 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>3.6303103257898792</v>
+        <v>1530.2712210499999</v>
       </c>
       <c r="N7" s="1">
-        <v>3.6303103257898792</v>
+        <v>1530.2712210499999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -22423,10 +22423,10 @@
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>3.5825856074834403</v>
+        <v>1522.46646695</v>
       </c>
       <c r="N8" s="1">
-        <v>3.5825856074834403</v>
+        <v>1522.46646695</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -22471,10 +22471,10 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>3.5314380450573775</v>
+        <v>1516.4159439</v>
       </c>
       <c r="N9" s="1">
-        <v>3.5314380450573775</v>
+        <v>1516.4159439</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -22519,10 +22519,10 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>3.4451830101950325</v>
+        <v>1499.8842144</v>
       </c>
       <c r="N10" s="1">
-        <v>3.4451830101950325</v>
+        <v>1499.8842144</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -22567,10 +22567,10 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>3.3684409877810086</v>
+        <v>1481.5868782</v>
       </c>
       <c r="N11" s="1">
-        <v>3.3684409877810086</v>
+        <v>1481.5868782</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -22615,10 +22615,10 @@
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>3.2944748380437971</v>
+        <v>1463.90991175</v>
       </c>
       <c r="N12" s="1">
-        <v>3.2944748380437971</v>
+        <v>1463.90991175</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -22663,10 +22663,10 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>3.1990699554939637</v>
+        <v>1434.3668196000001</v>
       </c>
       <c r="N13" s="1">
-        <v>3.1990699554939637</v>
+        <v>1434.3668196000001</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -22711,10 +22711,10 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>3.1292699879458383</v>
+        <v>1418.9120731500002</v>
       </c>
       <c r="N14" s="1">
-        <v>3.1292699879458383</v>
+        <v>1418.9120731500002</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -22759,10 +22759,10 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>3.0655779913241652</v>
+        <v>1402.4985975</v>
       </c>
       <c r="N15" s="1">
-        <v>3.0655779913241652</v>
+        <v>1402.4985975</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -22807,10 +22807,10 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>2.9968524275248996</v>
+        <v>1389.46712905</v>
       </c>
       <c r="N16" s="1">
-        <v>2.9968524275248996</v>
+        <v>1389.46712905</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -22855,10 +22855,10 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>2.9171426728432337</v>
+        <v>1362.9700656</v>
       </c>
       <c r="N17" s="1">
-        <v>2.9171426728432337</v>
+        <v>1362.9700656</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -22903,10 +22903,10 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>2.8343921195484914</v>
+        <v>1340.4013050999999</v>
       </c>
       <c r="N18" s="1">
-        <v>2.8343921195484914</v>
+        <v>1340.4013050999999</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -22951,10 +22951,10 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>2.7802888832756785</v>
+        <v>1326.3616366000001</v>
       </c>
       <c r="N19" s="1">
-        <v>2.7802888832756785</v>
+        <v>1326.3616366000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -22999,10 +22999,10 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>2.7278670192787233</v>
+        <v>1312.7314915000002</v>
       </c>
       <c r="N20" s="1">
-        <v>2.7278670192787233</v>
+        <v>1312.7314915000002</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -23047,10 +23047,10 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>2.6522265250637744</v>
+        <v>1293.0151090999998</v>
       </c>
       <c r="N21" s="1">
-        <v>2.6522265250637744</v>
+        <v>1293.0151090999998</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -23095,10 +23095,10 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" si="3"/>
-        <v>2.6051930228779061</v>
+        <v>1279.6881383</v>
       </c>
       <c r="N22" s="1">
-        <v>2.6051930228779061</v>
+        <v>1279.6881383</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -23143,10 +23143,10 @@
       </c>
       <c r="M23" s="3">
         <f t="shared" si="3"/>
-        <v>2.5195027834068671</v>
+        <v>1252.2405466999999</v>
       </c>
       <c r="N23" s="1">
-        <v>2.5195027834068671</v>
+        <v>1252.2405466999999</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -23191,10 +23191,10 @@
       </c>
       <c r="M24" s="3">
         <f t="shared" si="3"/>
-        <v>2.4693047307493647</v>
+        <v>1243.10007965</v>
       </c>
       <c r="N24" s="1">
-        <v>2.4693047307493647</v>
+        <v>1243.10007965</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -23239,10 +23239,10 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="3"/>
-        <v>2.3742773932529633</v>
+        <v>1210.4908529999998</v>
       </c>
       <c r="N25" s="1">
-        <v>2.3742773932529633</v>
+        <v>1210.4908529999998</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -23287,10 +23287,10 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="3"/>
-        <v>2.3127287988610812</v>
+        <v>1195.3421908999999</v>
       </c>
       <c r="N26" s="1">
-        <v>2.3127287988610812</v>
+        <v>1195.3421908999999</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -23335,10 +23335,10 @@
       </c>
       <c r="M27" s="3">
         <f t="shared" si="3"/>
-        <v>2.258725178666003</v>
+        <v>1178.4477633499998</v>
       </c>
       <c r="N27" s="1">
-        <v>2.258725178666003</v>
+        <v>1178.4477633499998</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -23383,10 +23383,10 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="3"/>
-        <v>2.2007244524968912</v>
+        <v>1165.0215862999999</v>
       </c>
       <c r="N28" s="1">
-        <v>2.2007244524968912</v>
+        <v>1165.0215862999999</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -23431,10 +23431,10 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="3"/>
-        <v>2.1394564928352544</v>
+        <v>1141.9448898000001</v>
       </c>
       <c r="N29" s="1">
-        <v>2.1394564928352544</v>
+        <v>1141.9448898000001</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -23479,10 +23479,10 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" si="3"/>
-        <v>2.090865131375339</v>
+        <v>1127.5343222000001</v>
       </c>
       <c r="N30" s="1">
-        <v>2.090865131375339</v>
+        <v>1127.5343222000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -23527,10 +23527,10 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" si="3"/>
-        <v>2.0440698701591815</v>
+        <v>1113.6242832</v>
       </c>
       <c r="N31" s="1">
-        <v>2.0440698701591815</v>
+        <v>1113.6242832</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -23575,10 +23575,10 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="3"/>
-        <v>2.0123752969976998</v>
+        <v>1105.3256142500002</v>
       </c>
       <c r="N32" s="1">
-        <v>2.0123752969976998</v>
+        <v>1105.3256142500002</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -23623,10 +23623,10 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="3"/>
-        <v>1.9437776837355156</v>
+        <v>1081.7658494499999</v>
       </c>
       <c r="N33" s="1">
-        <v>1.9437776837355156</v>
+        <v>1081.7658494499999</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -23671,10 +23671,10 @@
       </c>
       <c r="M34" s="3">
         <f t="shared" si="3"/>
-        <v>1.9032761727717238</v>
+        <v>1068.8584549499999</v>
       </c>
       <c r="N34" s="1">
-        <v>1.9032761727717238</v>
+        <v>1068.8584549499999</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -23719,10 +23719,10 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" si="3"/>
-        <v>1.8621833779913759</v>
+        <v>1057.3709002999999</v>
       </c>
       <c r="N35" s="1">
-        <v>1.8621833779913759</v>
+        <v>1057.3709002999999</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
@@ -23767,10 +23767,10 @@
       </c>
       <c r="M36" s="3">
         <f t="shared" si="3"/>
-        <v>1.8121276271152365</v>
+        <v>1041.3095407000001</v>
       </c>
       <c r="N36" s="1">
-        <v>1.8121276271152365</v>
+        <v>1041.3095407000001</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
@@ -23815,10 +23815,10 @@
       </c>
       <c r="M37" s="3">
         <f t="shared" si="3"/>
-        <v>1.7562854825623482</v>
+        <v>1020.2413078</v>
       </c>
       <c r="N37" s="1">
-        <v>1.7562854825623482</v>
+        <v>1020.2413078</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
@@ -23863,10 +23863,10 @@
       </c>
       <c r="M38" s="3">
         <f t="shared" si="3"/>
-        <v>1.7202366284057589</v>
+        <v>1010.1884078</v>
       </c>
       <c r="N38" s="1">
-        <v>1.7202366284057589</v>
+        <v>1010.1884078</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
@@ -23911,10 +23911,10 @@
       </c>
       <c r="M39" s="3">
         <f t="shared" si="3"/>
-        <v>1.6673221611152937</v>
+        <v>991.63578085000006</v>
       </c>
       <c r="N39" s="1">
-        <v>1.6673221611152937</v>
+        <v>991.63578085000006</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -23959,10 +23959,10 @@
       </c>
       <c r="M40" s="3">
         <f t="shared" si="3"/>
-        <v>1.6420165573344572</v>
+        <v>987.11832505000007</v>
       </c>
       <c r="N40" s="1">
-        <v>1.6420165573344572</v>
+        <v>987.11832505000007</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -24007,10 +24007,10 @@
       </c>
       <c r="M41" s="3">
         <f t="shared" si="3"/>
-        <v>1.5887801518600677</v>
+        <v>963.42152335000003</v>
       </c>
       <c r="N41" s="1">
-        <v>1.5887801518600677</v>
+        <v>963.42152335000003</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
@@ -24055,10 +24055,10 @@
       </c>
       <c r="M42" s="3">
         <f t="shared" si="3"/>
-        <v>1.5494470995839906</v>
+        <v>951.40989515000001</v>
       </c>
       <c r="N42" s="1">
-        <v>1.5494470995839906</v>
+        <v>951.40989515000001</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -24103,10 +24103,10 @@
       </c>
       <c r="M43" s="3">
         <f t="shared" si="3"/>
-        <v>1.5124323876862593</v>
+        <v>939.4085844</v>
       </c>
       <c r="N43" s="1">
-        <v>1.5124323876862593</v>
+        <v>939.4085844</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -24151,10 +24151,10 @@
       </c>
       <c r="M44" s="3">
         <f t="shared" si="3"/>
-        <v>1.4710981253004127</v>
+        <v>923.33108725</v>
       </c>
       <c r="N44" s="1">
-        <v>1.4710981253004127</v>
+        <v>923.33108725</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -24199,10 +24199,10 @@
       </c>
       <c r="M45" s="3">
         <f t="shared" si="3"/>
-        <v>1.4302173772775224</v>
+        <v>908.77501715000005</v>
       </c>
       <c r="N45" s="1">
-        <v>1.4302173772775224</v>
+        <v>908.77501715000005</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -24247,10 +24247,10 @@
       </c>
       <c r="M46" s="3">
         <f t="shared" si="3"/>
-        <v>1.4043600290977747</v>
+        <v>901.64036820000001</v>
       </c>
       <c r="N46" s="1">
-        <v>1.4043600290977747</v>
+        <v>901.64036820000001</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -24295,10 +24295,10 @@
       </c>
       <c r="M47" s="3">
         <f t="shared" si="3"/>
-        <v>1.3538855384188029</v>
+        <v>881.48668465000003</v>
       </c>
       <c r="N47" s="1">
-        <v>1.3538855384188029</v>
+        <v>881.48668465000003</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -24343,10 +24343,10 @@
       </c>
       <c r="M48" s="3">
         <f t="shared" si="3"/>
-        <v>1.3129193322931931</v>
+        <v>865.17982265000001</v>
       </c>
       <c r="N48" s="1">
-        <v>1.3129193322931931</v>
+        <v>865.17982265000001</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -24391,10 +24391,10 @@
       </c>
       <c r="M49" s="3">
         <f t="shared" si="3"/>
-        <v>1.2859220499639912</v>
+        <v>855.24940930000002</v>
       </c>
       <c r="N49" s="1">
-        <v>1.2859220499639912</v>
+        <v>855.24940930000002</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -24439,10 +24439,10 @@
       </c>
       <c r="M50" s="3">
         <f t="shared" si="3"/>
-        <v>1.2580112641314005</v>
+        <v>846.75179875000003</v>
       </c>
       <c r="N50" s="1">
-        <v>1.2580112641314005</v>
+        <v>846.75179875000003</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -24487,10 +24487,10 @@
       </c>
       <c r="M51" s="3">
         <f t="shared" si="3"/>
-        <v>1.2217133384344654</v>
+        <v>832.12694565000004</v>
       </c>
       <c r="N51" s="1">
-        <v>1.2217133384344654</v>
+        <v>832.12694565000004</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -24535,10 +24535,10 @@
       </c>
       <c r="M52" s="3">
         <f t="shared" si="3"/>
-        <v>1.1921234506166012</v>
+        <v>820.86346485000001</v>
       </c>
       <c r="N52" s="1">
-        <v>1.1921234506166012</v>
+        <v>820.86346485000001</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -24583,10 +24583,10 @@
       </c>
       <c r="M53" s="3">
         <f t="shared" si="3"/>
-        <v>1.1631503257070037</v>
+        <v>810.36929544999998</v>
       </c>
       <c r="N53" s="1">
-        <v>1.1631503257070037</v>
+        <v>810.36929544999998</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -24631,10 +24631,10 @@
       </c>
       <c r="M54" s="3">
         <f t="shared" si="3"/>
-        <v>1.1323150949782355</v>
+        <v>796.69523505000006</v>
       </c>
       <c r="N54" s="1">
-        <v>1.1323150949782355</v>
+        <v>796.69523505000006</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
@@ -24679,10 +24679,10 @@
       </c>
       <c r="M55" s="3">
         <f t="shared" si="3"/>
-        <v>1.1013003527059577</v>
+        <v>784.6140302</v>
       </c>
       <c r="N55" s="1">
-        <v>1.1013003527059577</v>
+        <v>784.6140302</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
@@ -24727,10 +24727,10 @@
       </c>
       <c r="M56" s="3">
         <f t="shared" si="3"/>
-        <v>1.0726564969309216</v>
+        <v>772.37594719999993</v>
       </c>
       <c r="N56" s="1">
-        <v>1.0726564969309216</v>
+        <v>772.37594719999993</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -24775,10 +24775,10 @@
       </c>
       <c r="M57" s="3">
         <f t="shared" si="3"/>
-        <v>1.0563576656039402</v>
+        <v>768.08177160000002</v>
       </c>
       <c r="N57" s="1">
-        <v>1.0563576656039402</v>
+        <v>768.08177160000002</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -24823,10 +24823,10 @@
       </c>
       <c r="M58" s="3">
         <f t="shared" si="3"/>
-        <v>1.0257231364326755</v>
+        <v>754.35189114999991</v>
       </c>
       <c r="N58" s="1">
-        <v>1.0257231364326755</v>
+        <v>754.35189114999991</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -24871,10 +24871,10 @@
       </c>
       <c r="M59" s="3">
         <f t="shared" si="3"/>
-        <v>0.99701144061880176</v>
+        <v>740.93894160000002</v>
       </c>
       <c r="N59" s="1">
-        <v>0.99701144061880176</v>
+        <v>740.93894160000002</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -24919,10 +24919,10 @@
       </c>
       <c r="M60" s="3">
         <f t="shared" si="3"/>
-        <v>0.97892494397273955</v>
+        <v>735.13392095000006</v>
       </c>
       <c r="N60" s="1">
-        <v>0.97892494397273955</v>
+        <v>735.13392095000006</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -24967,10 +24967,10 @@
       </c>
       <c r="M61" s="3">
         <f t="shared" si="3"/>
-        <v>0.9583348968272748</v>
+        <v>727.17519875000005</v>
       </c>
       <c r="N61" s="1">
-        <v>0.9583348968272748</v>
+        <v>727.17519875000005</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -25015,10 +25015,10 @@
       </c>
       <c r="M62" s="3">
         <f t="shared" si="3"/>
-        <v>0.93554867083269577</v>
+        <v>717.23737799999992</v>
       </c>
       <c r="N62" s="1">
-        <v>0.93554867083269577</v>
+        <v>717.23737799999992</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
@@ -25063,10 +25063,10 @@
       </c>
       <c r="M63" s="3">
         <f t="shared" si="3"/>
-        <v>0.91089282887337819</v>
+        <v>705.51966484999991</v>
       </c>
       <c r="N63" s="1">
-        <v>0.91089282887337819</v>
+        <v>705.51966484999991</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -25111,10 +25111,10 @@
       </c>
       <c r="M64" s="3">
         <f t="shared" si="3"/>
-        <v>0.89604128691714025</v>
+        <v>699.95326829999999</v>
       </c>
       <c r="N64" s="1">
-        <v>0.89604128691714025</v>
+        <v>699.95326829999999</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -25159,10 +25159,10 @@
       </c>
       <c r="M65" s="3">
         <f t="shared" si="3"/>
-        <v>0.87680315343530257</v>
+        <v>690.14930985000001</v>
       </c>
       <c r="N65" s="1">
-        <v>0.87680315343530257</v>
+        <v>690.14930985000001</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -25207,10 +25207,10 @@
       </c>
       <c r="M66" s="3">
         <f t="shared" si="3"/>
-        <v>0.86208832175968519</v>
+        <v>685.48740974999998</v>
       </c>
       <c r="N66" s="1">
-        <v>0.86208832175968519</v>
+        <v>685.48740974999998</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -25254,11 +25254,11 @@
         <v>390.10347969999998</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:M130" si="7">H67/J67</f>
-        <v>0.84645269157605241</v>
+        <f t="shared" ref="M67:N130" si="7">D67*K67</f>
+        <v>678.15329010000005</v>
       </c>
       <c r="N67" s="1">
-        <v>0.84645269157605241</v>
+        <v>678.15329010000005</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -25303,10 +25303,10 @@
       </c>
       <c r="M68" s="3">
         <f t="shared" si="7"/>
-        <v>0.82859495036920705</v>
+        <v>669.40938349999999</v>
       </c>
       <c r="N68" s="1">
-        <v>0.82859495036920705</v>
+        <v>669.40938349999999</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -25351,10 +25351,10 @@
       </c>
       <c r="M69" s="3">
         <f t="shared" si="7"/>
-        <v>0.81883524497963978</v>
+        <v>665.95727054999998</v>
       </c>
       <c r="N69" s="1">
-        <v>0.81883524497963978</v>
+        <v>665.95727054999998</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -25399,10 +25399,10 @@
       </c>
       <c r="M70" s="3">
         <f t="shared" si="7"/>
-        <v>0.8099580898048736</v>
+        <v>662.0279094</v>
       </c>
       <c r="N70" s="1">
-        <v>0.8099580898048736</v>
+        <v>662.0279094</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -25447,10 +25447,10 @@
       </c>
       <c r="M71" s="3">
         <f t="shared" si="7"/>
-        <v>0.7990551762665562</v>
+        <v>656.36098385000003</v>
       </c>
       <c r="N71" s="1">
-        <v>0.7990551762665562</v>
+        <v>656.36098385000003</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -25495,10 +25495,10 @@
       </c>
       <c r="M72" s="3">
         <f t="shared" si="7"/>
-        <v>4.8168180518729908</v>
+        <v>1945.0461501899999</v>
       </c>
       <c r="N72" s="1">
-        <v>4.8168180518729908</v>
+        <v>1945.0461501899999</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -25543,10 +25543,10 @@
       </c>
       <c r="M73" s="3">
         <f t="shared" si="7"/>
-        <v>4.6779992423266794</v>
+        <v>1906.9459105124999</v>
       </c>
       <c r="N73" s="1">
-        <v>4.6779992423266794</v>
+        <v>1906.9459105124999</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -25591,10 +25591,10 @@
       </c>
       <c r="M74" s="3">
         <f t="shared" si="7"/>
-        <v>4.5400456837856202</v>
+        <v>1872.627571815</v>
       </c>
       <c r="N74" s="1">
-        <v>4.5400456837856202</v>
+        <v>1872.627571815</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -25639,10 +25639,10 @@
       </c>
       <c r="M75" s="3">
         <f t="shared" si="7"/>
-        <v>4.4116438377621421</v>
+        <v>1838.933266885</v>
       </c>
       <c r="N75" s="1">
-        <v>4.4116438377621421</v>
+        <v>1838.933266885</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -25687,10 +25687,10 @@
       </c>
       <c r="M76" s="3">
         <f t="shared" si="7"/>
-        <v>4.339975335755998</v>
+        <v>1826.0205681575001</v>
       </c>
       <c r="N76" s="1">
-        <v>4.339975335755998</v>
+        <v>1826.0205681575001</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -25735,10 +25735,10 @@
       </c>
       <c r="M77" s="3">
         <f t="shared" si="7"/>
-        <v>4.2647005526201767</v>
+        <v>1815.3019148549999</v>
       </c>
       <c r="N77" s="1">
-        <v>4.2647005526201767</v>
+        <v>1815.3019148549999</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -25783,10 +25783,10 @@
       </c>
       <c r="M78" s="3">
         <f t="shared" si="7"/>
-        <v>4.1461952987130761</v>
+        <v>1785.3116009299999</v>
       </c>
       <c r="N78" s="1">
-        <v>4.1461952987130761</v>
+        <v>1785.3116009299999</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -25831,10 +25831,10 @@
       </c>
       <c r="M79" s="3">
         <f t="shared" si="7"/>
-        <v>4.1227090784121714</v>
+        <v>1793.6673200875</v>
       </c>
       <c r="N79" s="1">
-        <v>4.1227090784121714</v>
+        <v>1793.6673200875</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -25879,10 +25879,10 @@
       </c>
       <c r="M80" s="3">
         <f t="shared" si="7"/>
-        <v>3.9710097903737456</v>
+        <v>1745.4425534975001</v>
       </c>
       <c r="N80" s="1">
-        <v>3.9710097903737456</v>
+        <v>1745.4425534975001</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -25927,10 +25927,10 @@
       </c>
       <c r="M81" s="3">
         <f t="shared" si="7"/>
-        <v>3.9031399598341352</v>
+        <v>1737.1790696974999</v>
       </c>
       <c r="N81" s="1">
-        <v>3.9031399598341352</v>
+        <v>1737.1790696974999</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -25975,10 +25975,10 @@
       </c>
       <c r="M82" s="3">
         <f t="shared" si="7"/>
-        <v>3.8465246239185147</v>
+        <v>1725.5639490374999</v>
       </c>
       <c r="N82" s="1">
-        <v>3.8465246239185147</v>
+        <v>1725.5639490374999</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -26023,10 +26023,10 @@
       </c>
       <c r="M83" s="3">
         <f t="shared" si="7"/>
-        <v>3.7509515995433564</v>
+        <v>1697.8624291199999</v>
       </c>
       <c r="N83" s="1">
-        <v>3.7509515995433564</v>
+        <v>1697.8624291199999</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -26071,10 +26071,10 @@
       </c>
       <c r="M84" s="3">
         <f t="shared" si="7"/>
-        <v>3.6149796452844782</v>
+        <v>1658.3718733725</v>
       </c>
       <c r="N84" s="1">
-        <v>3.6149796452844782</v>
+        <v>1658.3718733725</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -26119,10 +26119,10 @@
       </c>
       <c r="M85" s="3">
         <f t="shared" si="7"/>
-        <v>3.5585372746769899</v>
+        <v>1650.7326746624999</v>
       </c>
       <c r="N85" s="1">
-        <v>3.5585372746769899</v>
+        <v>1650.7326746624999</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -26167,10 +26167,10 @@
       </c>
       <c r="M86" s="3">
         <f t="shared" si="7"/>
-        <v>3.4745898674167535</v>
+        <v>1626.0827125400001</v>
       </c>
       <c r="N86" s="1">
-        <v>3.4745898674167535</v>
+        <v>1626.0827125400001</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -26215,10 +26215,10 @@
       </c>
       <c r="M87" s="3">
         <f t="shared" si="7"/>
-        <v>3.3939490537333592</v>
+        <v>1602.3646542475001</v>
       </c>
       <c r="N87" s="1">
-        <v>3.3939490537333592</v>
+        <v>1602.3646542475001</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -26263,10 +26263,10 @@
       </c>
       <c r="M88" s="3">
         <f t="shared" si="7"/>
-        <v>3.2807330536526234</v>
+        <v>1567.638670455</v>
       </c>
       <c r="N88" s="1">
-        <v>3.2807330536526234</v>
+        <v>1567.638670455</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -26311,10 +26311,10 @@
       </c>
       <c r="M89" s="3">
         <f t="shared" si="7"/>
-        <v>3.2056273398691899</v>
+        <v>1546.8168526525001</v>
       </c>
       <c r="N89" s="1">
-        <v>3.2056273398691899</v>
+        <v>1546.8168526525001</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -26359,10 +26359,10 @@
       </c>
       <c r="M90" s="3">
         <f t="shared" si="7"/>
-        <v>3.127832298876613</v>
+        <v>1529.0098995600001</v>
       </c>
       <c r="N90" s="1">
-        <v>3.127832298876613</v>
+        <v>1529.0098995600001</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -26407,10 +26407,10 @@
       </c>
       <c r="M91" s="3">
         <f t="shared" si="7"/>
-        <v>3.0601547477755053</v>
+        <v>1508.8467980299999</v>
       </c>
       <c r="N91" s="1">
-        <v>3.0601547477755053</v>
+        <v>1508.8467980299999</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -26455,10 +26455,10 @@
       </c>
       <c r="M92" s="3">
         <f t="shared" si="7"/>
-        <v>2.9914349585818583</v>
+        <v>1490.84205413</v>
       </c>
       <c r="N92" s="1">
-        <v>2.9914349585818583</v>
+        <v>1490.84205413</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -26503,10 +26503,10 @@
       </c>
       <c r="M93" s="3">
         <f t="shared" si="7"/>
-        <v>2.9268935053543061</v>
+        <v>1472.724215105</v>
       </c>
       <c r="N93" s="1">
-        <v>2.9268935053543061</v>
+        <v>1472.724215105</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -26551,10 +26551,10 @@
       </c>
       <c r="M94" s="3">
         <f t="shared" si="7"/>
-        <v>2.8613468541287994</v>
+        <v>1456.6295222050001</v>
       </c>
       <c r="N94" s="1">
-        <v>2.8613468541287994</v>
+        <v>1456.6295222050001</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -26599,10 +26599,10 @@
       </c>
       <c r="M95" s="3">
         <f t="shared" si="7"/>
-        <v>2.7997328536466082</v>
+        <v>1440.3631760375001</v>
       </c>
       <c r="N95" s="1">
-        <v>2.7997328536466082</v>
+        <v>1440.3631760375001</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -26647,10 +26647,10 @@
       </c>
       <c r="M96" s="3">
         <f t="shared" si="7"/>
-        <v>2.7418053584652484</v>
+        <v>1423.9312083425</v>
       </c>
       <c r="N96" s="1">
-        <v>2.7418053584652484</v>
+        <v>1423.9312083425</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26695,10 +26695,10 @@
       </c>
       <c r="M97" s="3">
         <f t="shared" si="7"/>
-        <v>2.6652711089342302</v>
+        <v>1397.2156265925</v>
       </c>
       <c r="N97" s="1">
-        <v>2.6652711089342302</v>
+        <v>1397.2156265925</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -26743,10 +26743,10 @@
       </c>
       <c r="M98" s="3">
         <f t="shared" si="7"/>
-        <v>2.6133395196122691</v>
+        <v>1381.4169915975001</v>
       </c>
       <c r="N98" s="1">
-        <v>2.6133395196122691</v>
+        <v>1381.4169915975001</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -26791,10 +26791,10 @@
       </c>
       <c r="M99" s="3">
         <f t="shared" si="7"/>
-        <v>2.541361438818408</v>
+        <v>1357.3101373975001</v>
       </c>
       <c r="N99" s="1">
-        <v>2.541361438818408</v>
+        <v>1357.3101373975001</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -26839,10 +26839,10 @@
       </c>
       <c r="M100" s="3">
         <f t="shared" si="7"/>
-        <v>2.4906265487103041</v>
+        <v>1343.970693065</v>
       </c>
       <c r="N100" s="1">
-        <v>2.4906265487103041</v>
+        <v>1343.970693065</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -26887,10 +26887,10 @@
       </c>
       <c r="M101" s="3">
         <f t="shared" si="7"/>
-        <v>2.4604459668213243</v>
+        <v>1339.9960277274999</v>
       </c>
       <c r="N101" s="1">
-        <v>2.4604459668213243</v>
+        <v>1339.9960277274999</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -26935,10 +26935,10 @@
       </c>
       <c r="M102" s="3">
         <f t="shared" si="7"/>
-        <v>2.3965628424094882</v>
+        <v>1317.2033388799998</v>
       </c>
       <c r="N102" s="1">
-        <v>2.3965628424094882</v>
+        <v>1317.2033388799998</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -26983,10 +26983,10 @@
       </c>
       <c r="M103" s="3">
         <f t="shared" si="7"/>
-        <v>2.3169473093533255</v>
+        <v>1287.6877731575</v>
       </c>
       <c r="N103" s="1">
-        <v>2.3169473093533255</v>
+        <v>1287.6877731575</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -27031,10 +27031,10 @@
       </c>
       <c r="M104" s="3">
         <f t="shared" si="7"/>
-        <v>2.2720669017097124</v>
+        <v>1276.83491364</v>
       </c>
       <c r="N104" s="1">
-        <v>2.2720669017097124</v>
+        <v>1276.83491364</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -27079,10 +27079,10 @@
       </c>
       <c r="M105" s="3">
         <f t="shared" si="7"/>
-        <v>2.2161841738587755</v>
+        <v>1256.7014681650001</v>
       </c>
       <c r="N105" s="1">
-        <v>2.2161841738587755</v>
+        <v>1256.7014681650001</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -27127,10 +27127,10 @@
       </c>
       <c r="M106" s="3">
         <f t="shared" si="7"/>
-        <v>2.1602944115041423</v>
+        <v>1238.5187879350001</v>
       </c>
       <c r="N106" s="1">
-        <v>2.1602944115041423</v>
+        <v>1238.5187879350001</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -27175,10 +27175,10 @@
       </c>
       <c r="M107" s="3">
         <f t="shared" si="7"/>
-        <v>2.1213178456408435</v>
+        <v>1228.3123298875</v>
       </c>
       <c r="N107" s="1">
-        <v>2.1213178456408435</v>
+        <v>1228.3123298875</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -27223,10 +27223,10 @@
       </c>
       <c r="M108" s="3">
         <f t="shared" si="7"/>
-        <v>2.0552906854105233</v>
+        <v>1204.2373936449999</v>
       </c>
       <c r="N108" s="1">
-        <v>2.0552906854105233</v>
+        <v>1204.2373936449999</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -27271,10 +27271,10 @@
       </c>
       <c r="M109" s="3">
         <f t="shared" si="7"/>
-        <v>2.0172178330436132</v>
+        <v>1195.94827495</v>
       </c>
       <c r="N109" s="1">
-        <v>2.0172178330436132</v>
+        <v>1195.94827495</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -27319,10 +27319,10 @@
       </c>
       <c r="M110" s="3">
         <f t="shared" si="7"/>
-        <v>1.9605172186946793</v>
+        <v>1171.4056275349999</v>
       </c>
       <c r="N110" s="1">
-        <v>1.9605172186946793</v>
+        <v>1171.4056275349999</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -27367,10 +27367,10 @@
       </c>
       <c r="M111" s="3">
         <f t="shared" si="7"/>
-        <v>1.9262064381348083</v>
+        <v>1163.2894187200002</v>
       </c>
       <c r="N111" s="1">
-        <v>1.9262064381348083</v>
+        <v>1163.2894187200002</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -27415,10 +27415,10 @@
       </c>
       <c r="M112" s="3">
         <f t="shared" si="7"/>
-        <v>1.883736865323177</v>
+        <v>1147.5714582475</v>
       </c>
       <c r="N112" s="1">
-        <v>1.883736865323177</v>
+        <v>1147.5714582475</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -27463,10 +27463,10 @@
       </c>
       <c r="M113" s="3">
         <f t="shared" si="7"/>
-        <v>1.8418776603308287</v>
+        <v>1132.9158379825001</v>
       </c>
       <c r="N113" s="1">
-        <v>1.8418776603308287</v>
+        <v>1132.9158379825001</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -27511,10 +27511,10 @@
       </c>
       <c r="M114" s="3">
         <f t="shared" si="7"/>
-        <v>1.8108183393485211</v>
+        <v>1125.6237156449999</v>
       </c>
       <c r="N114" s="1">
-        <v>1.8108183393485211</v>
+        <v>1125.6237156449999</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -27559,10 +27559,10 @@
       </c>
       <c r="M115" s="3">
         <f t="shared" si="7"/>
-        <v>1.7626522341848401</v>
+        <v>1105.0916726849998</v>
       </c>
       <c r="N115" s="1">
-        <v>1.7626522341848401</v>
+        <v>1105.0916726849998</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -27607,10 +27607,10 @@
       </c>
       <c r="M116" s="3">
         <f t="shared" si="7"/>
-        <v>1.7345734173292</v>
+        <v>1097.866653455</v>
       </c>
       <c r="N116" s="1">
-        <v>1.7345734173292</v>
+        <v>1097.866653455</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -27655,10 +27655,10 @@
       </c>
       <c r="M117" s="3">
         <f t="shared" si="7"/>
-        <v>1.6880739523274826</v>
+        <v>1079.5691188424998</v>
       </c>
       <c r="N117" s="1">
-        <v>1.6880739523274826</v>
+        <v>1079.5691188424998</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -27703,10 +27703,10 @@
       </c>
       <c r="M118" s="3">
         <f t="shared" si="7"/>
-        <v>1.6452807357095949</v>
+        <v>1061.1089785725001</v>
       </c>
       <c r="N118" s="1">
-        <v>1.6452807357095949</v>
+        <v>1061.1089785725001</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -27751,10 +27751,10 @@
       </c>
       <c r="M119" s="3">
         <f t="shared" si="7"/>
-        <v>1.6201502557017122</v>
+        <v>1054.7334293925001</v>
       </c>
       <c r="N119" s="1">
-        <v>1.6201502557017122</v>
+        <v>1054.7334293925001</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -27799,10 +27799,10 @@
       </c>
       <c r="M120" s="3">
         <f t="shared" si="7"/>
-        <v>1.5874787858028343</v>
+        <v>1043.125597085</v>
       </c>
       <c r="N120" s="1">
-        <v>1.5874787858028343</v>
+        <v>1043.125597085</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -27847,10 +27847,10 @@
       </c>
       <c r="M121" s="3">
         <f t="shared" si="7"/>
-        <v>1.5473423283455907</v>
+        <v>1027.1497797275001</v>
       </c>
       <c r="N121" s="1">
-        <v>1.5473423283455907</v>
+        <v>1027.1497797275001</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -27895,10 +27895,10 @@
       </c>
       <c r="M122" s="3">
         <f t="shared" si="7"/>
-        <v>1.5170493984235018</v>
+        <v>1016.3640233174999</v>
       </c>
       <c r="N122" s="1">
-        <v>1.5170493984235018</v>
+        <v>1016.3640233174999</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -27943,10 +27943,10 @@
       </c>
       <c r="M123" s="3">
         <f t="shared" si="7"/>
-        <v>1.4891632740492633</v>
+        <v>1005.0233468274999</v>
       </c>
       <c r="N123" s="1">
-        <v>1.4891632740492633</v>
+        <v>1005.0233468274999</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -27991,10 +27991,10 @@
       </c>
       <c r="M124" s="3">
         <f t="shared" si="7"/>
-        <v>1.4607154219493699</v>
+        <v>994.87544692250003</v>
       </c>
       <c r="N124" s="1">
-        <v>1.4607154219493699</v>
+        <v>994.87544692250003</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -28039,10 +28039,10 @@
       </c>
       <c r="M125" s="3">
         <f t="shared" si="7"/>
-        <v>1.4264281095636988</v>
+        <v>980.3862021525</v>
       </c>
       <c r="N125" s="1">
-        <v>1.4264281095636988</v>
+        <v>980.3862021525</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -28087,10 +28087,10 @@
       </c>
       <c r="M126" s="3">
         <f t="shared" si="7"/>
-        <v>1.3921472354572197</v>
+        <v>967.26968087750004</v>
       </c>
       <c r="N126" s="1">
-        <v>1.3921472354572197</v>
+        <v>967.26968087750004</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -28135,10 +28135,10 @@
       </c>
       <c r="M127" s="3">
         <f t="shared" si="7"/>
-        <v>1.3598521721597006</v>
+        <v>954.22679709500005</v>
       </c>
       <c r="N127" s="1">
-        <v>1.3598521721597006</v>
+        <v>954.22679709500005</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -28183,10 +28183,10 @@
       </c>
       <c r="M128" s="3">
         <f t="shared" si="7"/>
-        <v>1.3294143343823848</v>
+        <v>941.25252435499999</v>
       </c>
       <c r="N128" s="1">
-        <v>1.3294143343823848</v>
+        <v>941.25252435499999</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -28231,10 +28231,10 @@
       </c>
       <c r="M129" s="3">
         <f t="shared" si="7"/>
-        <v>1.3115303146150843</v>
+        <v>936.92877206499998</v>
       </c>
       <c r="N129" s="1">
-        <v>1.3115303146150843</v>
+        <v>936.92877206499998</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -28279,10 +28279,10 @@
       </c>
       <c r="M130" s="3">
         <f t="shared" si="7"/>
-        <v>1.282845490473816</v>
+        <v>924.6001468275</v>
       </c>
       <c r="N130" s="1">
-        <v>1.282845490473816</v>
+        <v>924.6001468275</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
@@ -28326,11 +28326,11 @@
         <v>275.36267939999999</v>
       </c>
       <c r="M131" s="3">
-        <f t="shared" ref="M131:M194" si="11">H131/J131</f>
-        <v>1.2551980840413506</v>
+        <f t="shared" ref="M131:N194" si="11">D131*K131</f>
+        <v>912.69625661499992</v>
       </c>
       <c r="N131" s="1">
-        <v>1.2551980840413506</v>
+        <v>912.69625661499992</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -28375,10 +28375,10 @@
       </c>
       <c r="M132" s="3">
         <f t="shared" si="11"/>
-        <v>1.2222996501330161</v>
+        <v>898.19243514000004</v>
       </c>
       <c r="N132" s="1">
-        <v>1.2222996501330161</v>
+        <v>898.19243514000004</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -28423,10 +28423,10 @@
       </c>
       <c r="M133" s="3">
         <f t="shared" si="11"/>
-        <v>1.2016974549404345</v>
+        <v>890.82240282750001</v>
       </c>
       <c r="N133" s="1">
-        <v>1.2016974549404345</v>
+        <v>890.82240282750001</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -28471,10 +28471,10 @@
       </c>
       <c r="M134" s="3">
         <f t="shared" si="11"/>
-        <v>1.1763451393798623</v>
+        <v>880.42343174500002</v>
       </c>
       <c r="N134" s="1">
-        <v>1.1763451393798623</v>
+        <v>880.42343174500002</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -28519,10 +28519,10 @@
       </c>
       <c r="M135" s="3">
         <f t="shared" si="11"/>
-        <v>1.1564529846476119</v>
+        <v>873.84129546999998</v>
       </c>
       <c r="N135" s="1">
-        <v>1.1564529846476119</v>
+        <v>873.84129546999998</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -28567,10 +28567,10 @@
       </c>
       <c r="M136" s="3">
         <f t="shared" si="11"/>
-        <v>1.1352082808087305</v>
+        <v>862.22064571499993</v>
       </c>
       <c r="N136" s="1">
-        <v>1.1352082808087305</v>
+        <v>862.22064571499993</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -28615,10 +28615,10 @@
       </c>
       <c r="M137" s="3">
         <f t="shared" si="11"/>
-        <v>1.1169352230003577</v>
+        <v>855.68299352249994</v>
       </c>
       <c r="N137" s="1">
-        <v>1.1169352230003577</v>
+        <v>855.68299352249994</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
@@ -28663,10 +28663,10 @@
       </c>
       <c r="M138" s="3">
         <f t="shared" si="11"/>
-        <v>1.0949382734256456</v>
+        <v>846.04603225999995</v>
       </c>
       <c r="N138" s="1">
-        <v>1.0949382734256456</v>
+        <v>846.04603225999995</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -28711,10 +28711,10 @@
       </c>
       <c r="M139" s="3">
         <f t="shared" si="11"/>
-        <v>1.0731707599557228</v>
+        <v>837.04516824500001</v>
       </c>
       <c r="N139" s="1">
-        <v>1.0731707599557228</v>
+        <v>837.04516824500001</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -28759,10 +28759,10 @@
       </c>
       <c r="M140" s="3">
         <f t="shared" si="11"/>
-        <v>1.0491612839265443</v>
+        <v>824.57731034250003</v>
       </c>
       <c r="N140" s="1">
-        <v>1.0491612839265443</v>
+        <v>824.57731034250003</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -28807,10 +28807,10 @@
       </c>
       <c r="M141" s="3">
         <f t="shared" si="11"/>
-        <v>1.0330813002701487</v>
+        <v>818.84640337500002</v>
       </c>
       <c r="N141" s="1">
-        <v>1.0330813002701487</v>
+        <v>818.84640337500002</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -28855,10 +28855,10 @@
       </c>
       <c r="M142" s="3">
         <f t="shared" si="11"/>
-        <v>1.0182922959175589</v>
+        <v>812.58420064249992</v>
       </c>
       <c r="N142" s="1">
-        <v>1.0182922959175589</v>
+        <v>812.58420064249992</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -28903,10 +28903,10 @@
       </c>
       <c r="M143" s="3">
         <f t="shared" si="11"/>
-        <v>1.0029636365695547</v>
+        <v>807.10863733500003</v>
       </c>
       <c r="N143" s="1">
-        <v>1.0029636365695547</v>
+        <v>807.10863733500003</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -28951,10 +28951,10 @@
       </c>
       <c r="M144" s="3">
         <f t="shared" si="11"/>
-        <v>0.98237167471417119</v>
+        <v>795.15272336500004</v>
       </c>
       <c r="N144" s="1">
-        <v>0.98237167471417119</v>
+        <v>795.15272336500004</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -28999,10 +28999,10 @@
       </c>
       <c r="M145" s="3">
         <f t="shared" si="11"/>
-        <v>0.97297777537320063</v>
+        <v>791.50427463250003</v>
       </c>
       <c r="N145" s="1">
-        <v>0.97297777537320063</v>
+        <v>791.50427463250003</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -29047,10 +29047,10 @@
       </c>
       <c r="M146" s="3">
         <f t="shared" si="11"/>
-        <v>0.95957439128185185</v>
+        <v>785.81282529750001</v>
       </c>
       <c r="N146" s="1">
-        <v>0.95957439128185185</v>
+        <v>785.81282529750001</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -29095,10 +29095,10 @@
       </c>
       <c r="M147" s="3">
         <f t="shared" si="11"/>
-        <v>0.95094347463822038</v>
+        <v>781.98065981750005</v>
       </c>
       <c r="N147" s="1">
-        <v>0.95094347463822038</v>
+        <v>781.98065981750005</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -29143,10 +29143,10 @@
       </c>
       <c r="M148" s="3">
         <f t="shared" si="11"/>
-        <v>4.8354852021933441</v>
+        <v>1955.2804785800001</v>
       </c>
       <c r="N148" s="1">
-        <v>4.8354852021933441</v>
+        <v>1955.2804785800001</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -29191,10 +29191,10 @@
       </c>
       <c r="M149" s="3">
         <f t="shared" si="11"/>
-        <v>4.7389036330506444</v>
+        <v>1939.0529154424999</v>
       </c>
       <c r="N149" s="1">
-        <v>4.7389036330506444</v>
+        <v>1939.0529154424999</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -29239,10 +29239,10 @@
       </c>
       <c r="M150" s="3">
         <f t="shared" si="11"/>
-        <v>4.6453435864622215</v>
+        <v>1923.2780105825002</v>
       </c>
       <c r="N150" s="1">
-        <v>4.6453435864622215</v>
+        <v>1923.2780105825002</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -29287,10 +29287,10 @@
       </c>
       <c r="M151" s="3">
         <f t="shared" si="11"/>
-        <v>4.4958994289833667</v>
+        <v>1883.2776802124999</v>
       </c>
       <c r="N151" s="1">
-        <v>4.4958994289833667</v>
+        <v>1883.2776802124999</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -29335,10 +29335,10 @@
       </c>
       <c r="M152" s="3">
         <f t="shared" si="11"/>
-        <v>4.2976340404995286</v>
+        <v>1823.3369994125001</v>
       </c>
       <c r="N152" s="1">
-        <v>4.2976340404995286</v>
+        <v>1823.3369994125001</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -29383,10 +29383,10 @@
       </c>
       <c r="M153" s="3">
         <f t="shared" si="11"/>
-        <v>4.1533756140198657</v>
+        <v>1792.8955616000001</v>
       </c>
       <c r="N153" s="1">
-        <v>4.1533756140198657</v>
+        <v>1792.8955616000001</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -29431,10 +29431,10 @@
       </c>
       <c r="M154" s="3">
         <f t="shared" si="11"/>
-        <v>4.0269845505974828</v>
+        <v>1760.3536364700001</v>
       </c>
       <c r="N154" s="1">
-        <v>4.0269845505974828</v>
+        <v>1760.3536364700001</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -29479,10 +29479,10 @@
       </c>
       <c r="M155" s="3">
         <f t="shared" si="11"/>
-        <v>4.0041392688357424</v>
+        <v>1768.4398717700001</v>
       </c>
       <c r="N155" s="1">
-        <v>4.0041392688357424</v>
+        <v>1768.4398717700001</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -29527,10 +29527,10 @@
       </c>
       <c r="M156" s="3">
         <f t="shared" si="11"/>
-        <v>3.8849132466298655</v>
+        <v>1737.2676145824998</v>
       </c>
       <c r="N156" s="1">
-        <v>3.8849132466298655</v>
+        <v>1737.2676145824998</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -29575,10 +29575,10 @@
       </c>
       <c r="M157" s="3">
         <f t="shared" si="11"/>
-        <v>3.8727945876479914</v>
+        <v>1741.6590519899999</v>
       </c>
       <c r="N157" s="1">
-        <v>3.8727945876479914</v>
+        <v>1741.6590519899999</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -29623,10 +29623,10 @@
       </c>
       <c r="M158" s="3">
         <f t="shared" si="11"/>
-        <v>3.7668270153359869</v>
+        <v>1709.2594679874999</v>
       </c>
       <c r="N158" s="1">
-        <v>3.7668270153359869</v>
+        <v>1709.2594679874999</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -29671,10 +29671,10 @@
       </c>
       <c r="M159" s="3">
         <f t="shared" si="11"/>
-        <v>3.7551800400696513</v>
+        <v>1713.5569107800002</v>
       </c>
       <c r="N159" s="1">
-        <v>3.7551800400696513</v>
+        <v>1713.5569107800002</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -29719,10 +29719,10 @@
       </c>
       <c r="M160" s="3">
         <f t="shared" si="11"/>
-        <v>3.6567531139533203</v>
+        <v>1681.68419133</v>
       </c>
       <c r="N160" s="1">
-        <v>3.6567531139533203</v>
+        <v>1681.68419133</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -29767,10 +29767,10 @@
       </c>
       <c r="M161" s="3">
         <f t="shared" si="11"/>
-        <v>3.5605715600250361</v>
+        <v>1652.0338373825</v>
       </c>
       <c r="N161" s="1">
-        <v>3.5605715600250361</v>
+        <v>1652.0338373825</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -29815,10 +29815,10 @@
       </c>
       <c r="M162" s="3">
         <f t="shared" si="11"/>
-        <v>3.5055522000288111</v>
+        <v>1640.9586632725</v>
       </c>
       <c r="N162" s="1">
-        <v>3.5055522000288111</v>
+        <v>1640.9586632725</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -29863,10 +29863,10 @@
       </c>
       <c r="M163" s="3">
         <f t="shared" si="11"/>
-        <v>3.4581527145785271</v>
+        <v>1627.7015998100001</v>
       </c>
       <c r="N163" s="1">
-        <v>3.4581527145785271</v>
+        <v>1627.7015998100001</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -29911,10 +29911,10 @@
       </c>
       <c r="M164" s="3">
         <f t="shared" si="11"/>
-        <v>3.3705718635373105</v>
+        <v>1600.4433863275001</v>
       </c>
       <c r="N164" s="1">
-        <v>3.3705718635373105</v>
+        <v>1600.4433863275001</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -29959,10 +29959,10 @@
       </c>
       <c r="M165" s="3">
         <f t="shared" si="11"/>
-        <v>3.3604444564968228</v>
+        <v>1604.4062262800001</v>
       </c>
       <c r="N165" s="1">
-        <v>3.3604444564968228</v>
+        <v>1604.4062262800001</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -30007,10 +30007,10 @@
       </c>
       <c r="M166" s="3">
         <f t="shared" si="11"/>
-        <v>3.280830147452527</v>
+        <v>1576.6418360550001</v>
       </c>
       <c r="N166" s="1">
-        <v>3.280830147452527</v>
+        <v>1576.6418360550001</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -30055,10 +30055,10 @@
       </c>
       <c r="M167" s="3">
         <f t="shared" si="11"/>
-        <v>3.2690934075288913</v>
+        <v>1581.30603774</v>
       </c>
       <c r="N167" s="1">
-        <v>3.2690934075288913</v>
+        <v>1581.30603774</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -30103,10 +30103,10 @@
       </c>
       <c r="M168" s="3">
         <f t="shared" si="11"/>
-        <v>3.1580922970464904</v>
+        <v>1540.847427405</v>
       </c>
       <c r="N168" s="1">
-        <v>3.1580922970464904</v>
+        <v>1540.847427405</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -30151,10 +30151,10 @@
       </c>
       <c r="M169" s="3">
         <f t="shared" si="11"/>
-        <v>3.1127549642350214</v>
+        <v>1531.8864575299999</v>
       </c>
       <c r="N169" s="1">
-        <v>3.1127549642350214</v>
+        <v>1531.8864575299999</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -30199,10 +30199,10 @@
       </c>
       <c r="M170" s="3">
         <f t="shared" si="11"/>
-        <v>3.0375243144050237</v>
+        <v>1509.3502366800001</v>
       </c>
       <c r="N170" s="1">
-        <v>3.0375243144050237</v>
+        <v>1509.3502366800001</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -30247,10 +30247,10 @@
       </c>
       <c r="M171" s="3">
         <f t="shared" si="11"/>
-        <v>2.9653024114272664</v>
+        <v>1487.6743588849999</v>
       </c>
       <c r="N171" s="1">
-        <v>2.9653024114272664</v>
+        <v>1487.6743588849999</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -30295,10 +30295,10 @@
       </c>
       <c r="M172" s="3">
         <f t="shared" si="11"/>
-        <v>2.8647215209873012</v>
+        <v>1455.6123010000001</v>
       </c>
       <c r="N172" s="1">
-        <v>2.8647215209873012</v>
+        <v>1455.6123010000001</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -30343,10 +30343,10 @@
       </c>
       <c r="M173" s="3">
         <f t="shared" si="11"/>
-        <v>2.7697972231288186</v>
+        <v>1425.2819477325002</v>
       </c>
       <c r="N173" s="1">
-        <v>2.7697972231288186</v>
+        <v>1425.2819477325002</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -30391,10 +30391,10 @@
       </c>
       <c r="M174" s="3">
         <f t="shared" si="11"/>
-        <v>2.7268578455224857</v>
+        <v>1420.9750605050001</v>
       </c>
       <c r="N174" s="1">
-        <v>2.7268578455224857</v>
+        <v>1420.9750605050001</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -30439,10 +30439,10 @@
       </c>
       <c r="M175" s="3">
         <f t="shared" si="11"/>
-        <v>2.6140824713740605</v>
+        <v>1382.1665278850001</v>
       </c>
       <c r="N175" s="1">
-        <v>2.6140824713740605</v>
+        <v>1382.1665278850001</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -30487,10 +30487,10 @@
       </c>
       <c r="M176" s="3">
         <f t="shared" si="11"/>
-        <v>2.5748103214871714</v>
+        <v>1378.4276559625</v>
       </c>
       <c r="N176" s="1">
-        <v>2.5748103214871714</v>
+        <v>1378.4276559625</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -30535,10 +30535,10 @@
       </c>
       <c r="M177" s="3">
         <f t="shared" si="11"/>
-        <v>2.521212214745415</v>
+        <v>1360.8724751050001</v>
       </c>
       <c r="N177" s="1">
-        <v>2.521212214745415</v>
+        <v>1360.8724751050001</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -30583,10 +30583,10 @@
       </c>
       <c r="M178" s="3">
         <f t="shared" si="11"/>
-        <v>2.4469688888383603</v>
+        <v>1334.36194606</v>
       </c>
       <c r="N178" s="1">
-        <v>2.4469688888383603</v>
+        <v>1334.36194606</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -30631,10 +30631,10 @@
       </c>
       <c r="M179" s="3">
         <f t="shared" si="11"/>
-        <v>2.397766137635625</v>
+        <v>1318.222306115</v>
       </c>
       <c r="N179" s="1">
-        <v>2.397766137635625</v>
+        <v>1318.222306115</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -30679,10 +30679,10 @@
       </c>
       <c r="M180" s="3">
         <f t="shared" si="11"/>
-        <v>2.3698741989896002</v>
+        <v>1312.1870872825</v>
       </c>
       <c r="N180" s="1">
-        <v>2.3698741989896002</v>
+        <v>1312.1870872825</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -30727,10 +30727,10 @@
       </c>
       <c r="M181" s="3">
         <f t="shared" si="11"/>
-        <v>2.320658763033884</v>
+        <v>1297.98827873</v>
       </c>
       <c r="N181" s="1">
-        <v>2.320658763033884</v>
+        <v>1297.98827873</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -30775,10 +30775,10 @@
       </c>
       <c r="M182" s="3">
         <f t="shared" si="11"/>
-        <v>2.2730910452170887</v>
+        <v>1284.2311099475</v>
       </c>
       <c r="N182" s="1">
-        <v>2.2730910452170887</v>
+        <v>1284.2311099475</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -30823,10 +30823,10 @@
       </c>
       <c r="M183" s="3">
         <f t="shared" si="11"/>
-        <v>2.2117998333698679</v>
+        <v>1260.881993085</v>
       </c>
       <c r="N183" s="1">
-        <v>2.2117998333698679</v>
+        <v>1260.881993085</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -30871,10 +30871,10 @@
       </c>
       <c r="M184" s="3">
         <f t="shared" si="11"/>
-        <v>2.1521479859617152</v>
+        <v>1239.1350571600001</v>
       </c>
       <c r="N184" s="1">
-        <v>2.1521479859617152</v>
+        <v>1239.1350571600001</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -30919,10 +30919,10 @@
       </c>
       <c r="M185" s="3">
         <f t="shared" si="11"/>
-        <v>2.0929505734302984</v>
+        <v>1219.4483572699999</v>
       </c>
       <c r="N185" s="1">
-        <v>2.0929505734302984</v>
+        <v>1219.4483572699999</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -30967,10 +30967,10 @@
       </c>
       <c r="M186" s="3">
         <f t="shared" si="11"/>
-        <v>2.0342615335659291</v>
+        <v>1201.6948432775</v>
       </c>
       <c r="N186" s="1">
-        <v>2.0342615335659291</v>
+        <v>1201.6948432775</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -31015,10 +31015,10 @@
       </c>
       <c r="M187" s="3">
         <f t="shared" si="11"/>
-        <v>1.9669387213042668</v>
+        <v>1175.6093138074998</v>
       </c>
       <c r="N187" s="1">
-        <v>1.9669387213042668</v>
+        <v>1175.6093138074998</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -31063,10 +31063,10 @@
       </c>
       <c r="M188" s="3">
         <f t="shared" si="11"/>
-        <v>1.9286449999114537</v>
+        <v>1166.2584236875</v>
       </c>
       <c r="N188" s="1">
-        <v>1.9286449999114537</v>
+        <v>1166.2584236875</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -31111,10 +31111,10 @@
       </c>
       <c r="M189" s="3">
         <f t="shared" si="11"/>
-        <v>1.8954427233258337</v>
+        <v>1155.07958566</v>
       </c>
       <c r="N189" s="1">
-        <v>1.8954427233258337</v>
+        <v>1155.07958566</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -31159,10 +31159,10 @@
       </c>
       <c r="M190" s="3">
         <f t="shared" si="11"/>
-        <v>1.8502392667894514</v>
+        <v>1137.330793885</v>
       </c>
       <c r="N190" s="1">
-        <v>1.8502392667894514</v>
+        <v>1137.330793885</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -31207,10 +31207,10 @@
       </c>
       <c r="M191" s="3">
         <f t="shared" si="11"/>
-        <v>1.8049897884353139</v>
+        <v>1121.26760889</v>
       </c>
       <c r="N191" s="1">
-        <v>1.8049897884353139</v>
+        <v>1121.26760889</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -31255,10 +31255,10 @@
       </c>
       <c r="M192" s="3">
         <f t="shared" si="11"/>
-        <v>1.7725168294572919</v>
+        <v>1112.7149983949998</v>
       </c>
       <c r="N192" s="1">
-        <v>1.7725168294572919</v>
+        <v>1112.7149983949998</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -31303,10 +31303,10 @@
       </c>
       <c r="M193" s="3">
         <f t="shared" si="11"/>
-        <v>1.7418450789763553</v>
+        <v>1103.8896236224998</v>
       </c>
       <c r="N193" s="1">
-        <v>1.7418450789763553</v>
+        <v>1103.8896236224998</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -31351,10 +31351,10 @@
       </c>
       <c r="M194" s="3">
         <f t="shared" si="11"/>
-        <v>1.6805547993537362</v>
+        <v>1076.1200614449999</v>
       </c>
       <c r="N194" s="1">
-        <v>1.6805547993537362</v>
+        <v>1076.1200614449999</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -31398,11 +31398,11 @@
         <v>209.28582460000001</v>
       </c>
       <c r="M195" s="3">
-        <f t="shared" ref="M195:M258" si="15">H195/J195</f>
-        <v>1.662224359418663</v>
+        <f t="shared" ref="M195:N258" si="15">D195*K195</f>
+        <v>1074.4515445949999</v>
       </c>
       <c r="N195" s="1">
-        <v>1.662224359418663</v>
+        <v>1074.4515445949999</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -31447,10 +31447,10 @@
       </c>
       <c r="M196" s="3">
         <f t="shared" si="15"/>
-        <v>1.6164698492586687</v>
+        <v>1053.6742373300001</v>
       </c>
       <c r="N196" s="1">
-        <v>1.6164698492586687</v>
+        <v>1053.6742373300001</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -31495,10 +31495,10 @@
       </c>
       <c r="M197" s="3">
         <f t="shared" si="15"/>
-        <v>1.5689746621628242</v>
+        <v>1036.108037965</v>
       </c>
       <c r="N197" s="1">
-        <v>1.5689746621628242</v>
+        <v>1036.108037965</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -31543,10 +31543,10 @@
       </c>
       <c r="M198" s="3">
         <f t="shared" si="15"/>
-        <v>1.5438038161155456</v>
+        <v>1028.9657964300002</v>
       </c>
       <c r="N198" s="1">
-        <v>1.5438038161155456</v>
+        <v>1028.9657964300002</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -31591,10 +31591,10 @@
       </c>
       <c r="M199" s="3">
         <f t="shared" si="15"/>
-        <v>1.5019379563563149</v>
+        <v>1011.2262242225</v>
       </c>
       <c r="N199" s="1">
-        <v>1.5019379563563149</v>
+        <v>1011.2262242225</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -31639,10 +31639,10 @@
       </c>
       <c r="M200" s="3">
         <f t="shared" si="15"/>
-        <v>1.4784754006071739</v>
+        <v>1004.5962308525001</v>
       </c>
       <c r="N200" s="1">
-        <v>1.4784754006071739</v>
+        <v>1004.5962308525001</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -31687,10 +31687,10 @@
       </c>
       <c r="M201" s="3">
         <f t="shared" si="15"/>
-        <v>1.4312461160421863</v>
+        <v>983.16590836750004</v>
       </c>
       <c r="N201" s="1">
-        <v>1.4312461160421863</v>
+        <v>983.16590836750004</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -31735,10 +31735,10 @@
       </c>
       <c r="M202" s="3">
         <f t="shared" si="15"/>
-        <v>1.3936873900415676</v>
+        <v>967.81915122750002</v>
       </c>
       <c r="N202" s="1">
-        <v>1.3936873900415676</v>
+        <v>967.81915122750002</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -31783,10 +31783,10 @@
       </c>
       <c r="M203" s="3">
         <f t="shared" si="15"/>
-        <v>1.3728900619931765</v>
+        <v>962.02139247500008</v>
       </c>
       <c r="N203" s="1">
-        <v>1.3728900619931765</v>
+        <v>962.02139247500008</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -31831,10 +31831,10 @@
       </c>
       <c r="M204" s="3">
         <f t="shared" si="15"/>
-        <v>1.3311667028330629</v>
+        <v>942.85368677500003</v>
       </c>
       <c r="N204" s="1">
-        <v>1.3311667028330629</v>
+        <v>942.85368677500003</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -31879,10 +31879,10 @@
       </c>
       <c r="M205" s="3">
         <f t="shared" si="15"/>
-        <v>1.327380334917434</v>
+        <v>945.24987485499992</v>
       </c>
       <c r="N205" s="1">
-        <v>1.327380334917434</v>
+        <v>945.24987485499992</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -31927,10 +31927,10 @@
       </c>
       <c r="M206" s="3">
         <f t="shared" si="15"/>
-        <v>1.3035813751496383</v>
+        <v>934.09284897499992</v>
       </c>
       <c r="N206" s="1">
-        <v>1.3035813751496383</v>
+        <v>934.09284897499992</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -31975,10 +31975,10 @@
       </c>
       <c r="M207" s="3">
         <f t="shared" si="15"/>
-        <v>1.2786992211855044</v>
+        <v>924.42714435499988</v>
       </c>
       <c r="N207" s="1">
-        <v>1.2786992211855044</v>
+        <v>924.42714435499988</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -32023,10 +32023,10 @@
       </c>
       <c r="M208" s="3">
         <f t="shared" si="15"/>
-        <v>1.2623448003738145</v>
+        <v>918.26824839749986</v>
       </c>
       <c r="N208" s="1">
-        <v>1.2623448003738145</v>
+        <v>918.26824839749986</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -32071,10 +32071,10 @@
       </c>
       <c r="M209" s="3">
         <f t="shared" si="15"/>
-        <v>1.2186661340506599</v>
+        <v>898.2458213299999</v>
       </c>
       <c r="N209" s="1">
-        <v>1.2186661340506599</v>
+        <v>898.2458213299999</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -32119,10 +32119,10 @@
       </c>
       <c r="M210" s="3">
         <f t="shared" si="15"/>
-        <v>1.1903983862357714</v>
+        <v>885.88125697499993</v>
       </c>
       <c r="N210" s="1">
-        <v>1.1903983862357714</v>
+        <v>885.88125697499993</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
@@ -32167,10 +32167,10 @@
       </c>
       <c r="M211" s="3">
         <f t="shared" si="15"/>
-        <v>1.161608722731476</v>
+        <v>875.048939765</v>
       </c>
       <c r="N211" s="1">
-        <v>1.161608722731476</v>
+        <v>875.048939765</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -32215,10 +32215,10 @@
       </c>
       <c r="M212" s="3">
         <f t="shared" si="15"/>
-        <v>1.1410119742177982</v>
+        <v>867.00205627749995</v>
       </c>
       <c r="N212" s="1">
-        <v>1.1410119742177982</v>
+        <v>867.00205627749995</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -32263,10 +32263,10 @@
       </c>
       <c r="M213" s="3">
         <f t="shared" si="15"/>
-        <v>1.1215148029812343</v>
+        <v>858.81732901249995</v>
       </c>
       <c r="N213" s="1">
-        <v>1.1215148029812343</v>
+        <v>858.81732901249995</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -32311,10 +32311,10 @@
       </c>
       <c r="M214" s="3">
         <f t="shared" si="15"/>
-        <v>1.0968569422165428</v>
+        <v>847.89056745250002</v>
       </c>
       <c r="N214" s="1">
-        <v>1.0968569422165428</v>
+        <v>847.89056745250002</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -32359,10 +32359,10 @@
       </c>
       <c r="M215" s="3">
         <f t="shared" si="15"/>
-        <v>1.0780993968871662</v>
+        <v>840.53919914250002</v>
       </c>
       <c r="N215" s="1">
-        <v>1.0780993968871662</v>
+        <v>840.53919914250002</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -32407,10 +32407,10 @@
       </c>
       <c r="M216" s="3">
         <f t="shared" si="15"/>
-        <v>1.0589086381915953</v>
+        <v>834.04974795999999</v>
       </c>
       <c r="N216" s="1">
-        <v>1.0589086381915953</v>
+        <v>834.04974795999999</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -32455,10 +32455,10 @@
       </c>
       <c r="M217" s="3">
         <f t="shared" si="15"/>
-        <v>1.0289579869846359</v>
+        <v>816.61554581749999</v>
       </c>
       <c r="N217" s="1">
-        <v>1.0289579869846359</v>
+        <v>816.61554581749999</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -32503,10 +32503,10 @@
       </c>
       <c r="M218" s="3">
         <f t="shared" si="15"/>
-        <v>1.0125129156241477</v>
+        <v>809.68130672000007</v>
       </c>
       <c r="N218" s="1">
-        <v>1.0125129156241477</v>
+        <v>809.68130672000007</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -32551,10 +32551,10 @@
       </c>
       <c r="M219" s="3">
         <f t="shared" si="15"/>
-        <v>1.0009012330196374</v>
+        <v>805.79829473000007</v>
       </c>
       <c r="N219" s="1">
-        <v>1.0009012330196374</v>
+        <v>805.79829473000007</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -32599,10 +32599,10 @@
       </c>
       <c r="M220" s="3">
         <f t="shared" si="15"/>
-        <v>0.98002368353843694</v>
+        <v>796.94638559250006</v>
       </c>
       <c r="N220" s="1">
-        <v>0.98002368353843694</v>
+        <v>796.94638559250006</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -32647,10 +32647,10 @@
       </c>
       <c r="M221" s="3">
         <f t="shared" si="15"/>
-        <v>0.96237522189633573</v>
+        <v>786.49274525249996</v>
       </c>
       <c r="N221" s="1">
-        <v>0.96237522189633573</v>
+        <v>786.49274525249996</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
@@ -32695,10 +32695,10 @@
       </c>
       <c r="M222" s="3">
         <f t="shared" si="15"/>
-        <v>0.95574677981846701</v>
+        <v>785.64656884999999</v>
       </c>
       <c r="N222" s="1">
-        <v>0.95574677981846701</v>
+        <v>785.64656884999999</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -32743,10 +32743,10 @@
       </c>
       <c r="M223" s="3">
         <f t="shared" si="15"/>
-        <v>4.9370291840013678</v>
+        <v>1999.1380802250001</v>
       </c>
       <c r="N223" s="1">
-        <v>4.9370291840013678</v>
+        <v>1999.1380802250001</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -32791,10 +32791,10 @@
       </c>
       <c r="M224" s="3">
         <f t="shared" si="15"/>
-        <v>4.9203757681738685</v>
+        <v>2004.2565274874999</v>
       </c>
       <c r="N224" s="1">
-        <v>4.9203757681738685</v>
+        <v>2004.2565274874999</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -32839,10 +32839,10 @@
       </c>
       <c r="M225" s="3">
         <f t="shared" si="15"/>
-        <v>4.7506180490645384</v>
+        <v>1948.8141226125001</v>
       </c>
       <c r="N225" s="1">
-        <v>4.7506180490645384</v>
+        <v>1948.8141226125001</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -32887,10 +32887,10 @@
       </c>
       <c r="M226" s="3">
         <f t="shared" si="15"/>
-        <v>4.7315824302657141</v>
+        <v>1954.786537275</v>
       </c>
       <c r="N226" s="1">
-        <v>4.7315824302657141</v>
+        <v>1954.786537275</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -32935,10 +32935,10 @@
       </c>
       <c r="M227" s="3">
         <f t="shared" si="15"/>
-        <v>4.5031446989872546</v>
+        <v>1875.6542751374998</v>
       </c>
       <c r="N227" s="1">
-        <v>4.5031446989872546</v>
+        <v>1875.6542751374998</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
@@ -32983,10 +32983,10 @@
       </c>
       <c r="M228" s="3">
         <f t="shared" si="15"/>
-        <v>4.4033492271994632</v>
+        <v>1859.940600375</v>
       </c>
       <c r="N228" s="1">
-        <v>4.4033492271994632</v>
+        <v>1859.940600375</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
@@ -33031,10 +33031,10 @@
       </c>
       <c r="M229" s="3">
         <f t="shared" si="15"/>
-        <v>4.3154185312424778</v>
+        <v>1841.9090707874998</v>
       </c>
       <c r="N229" s="1">
-        <v>4.3154185312424778</v>
+        <v>1841.9090707874998</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -33079,10 +33079,10 @@
       </c>
       <c r="M230" s="3">
         <f t="shared" si="15"/>
-        <v>4.2957797750625879</v>
+        <v>1848.4201753874997</v>
       </c>
       <c r="N230" s="1">
-        <v>4.2957797750625879</v>
+        <v>1848.4201753874997</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
@@ -33127,10 +33127,10 @@
       </c>
       <c r="M231" s="3">
         <f t="shared" si="15"/>
-        <v>4.2138823478743603</v>
+        <v>1829.9124557999999</v>
       </c>
       <c r="N231" s="1">
-        <v>4.2138823478743603</v>
+        <v>1829.9124557999999</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -33175,10 +33175,10 @@
       </c>
       <c r="M232" s="3">
         <f t="shared" si="15"/>
-        <v>4.1371684358445977</v>
+        <v>1811.0297365875001</v>
       </c>
       <c r="N232" s="1">
-        <v>4.1371684358445977</v>
+        <v>1811.0297365875001</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -33223,10 +33223,10 @@
       </c>
       <c r="M233" s="3">
         <f t="shared" si="15"/>
-        <v>4.0058107294078491</v>
+        <v>1769.535135225</v>
       </c>
       <c r="N233" s="1">
-        <v>4.0058107294078491</v>
+        <v>1769.535135225</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -33271,10 +33271,10 @@
       </c>
       <c r="M234" s="3">
         <f t="shared" si="15"/>
-        <v>3.932833256129566</v>
+        <v>1753.1196754500002</v>
       </c>
       <c r="N234" s="1">
-        <v>3.932833256129566</v>
+        <v>1753.1196754500002</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
@@ -33319,10 +33319,10 @@
       </c>
       <c r="M235" s="3">
         <f t="shared" si="15"/>
-        <v>3.866880865706229</v>
+        <v>1735.4252486999999</v>
       </c>
       <c r="N235" s="1">
-        <v>3.866880865706229</v>
+        <v>1735.4252486999999</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
@@ -33367,10 +33367,10 @@
       </c>
       <c r="M236" s="3">
         <f t="shared" si="15"/>
-        <v>3.7521686401139402</v>
+        <v>1697.2141758</v>
       </c>
       <c r="N236" s="1">
-        <v>3.7521686401139402</v>
+        <v>1697.2141758</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -33415,10 +33415,10 @@
       </c>
       <c r="M237" s="3">
         <f t="shared" si="15"/>
-        <v>3.7333885980244972</v>
+        <v>1703.9512722375002</v>
       </c>
       <c r="N237" s="1">
-        <v>3.7333885980244972</v>
+        <v>1703.9512722375002</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -33463,10 +33463,10 @@
       </c>
       <c r="M238" s="3">
         <f t="shared" si="15"/>
-        <v>3.6207204844290368</v>
+        <v>1669.1604340124998</v>
       </c>
       <c r="N238" s="1">
-        <v>3.6207204844290368</v>
+        <v>1669.1604340124998</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
@@ -33511,10 +33511,10 @@
       </c>
       <c r="M239" s="3">
         <f t="shared" si="15"/>
-        <v>3.5137911080804112</v>
+        <v>1636.0872528</v>
       </c>
       <c r="N239" s="1">
-        <v>3.5137911080804112</v>
+        <v>1636.0872528</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -33559,10 +33559,10 @@
       </c>
       <c r="M240" s="3">
         <f t="shared" si="15"/>
-        <v>3.4986716522289885</v>
+        <v>1641.7152233625002</v>
       </c>
       <c r="N240" s="1">
-        <v>3.4986716522289885</v>
+        <v>1641.7152233625002</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -33607,10 +33607,10 @@
       </c>
       <c r="M241" s="3">
         <f t="shared" si="15"/>
-        <v>3.3996778972394823</v>
+        <v>1609.3273589249998</v>
       </c>
       <c r="N241" s="1">
-        <v>3.3996778972394823</v>
+        <v>1609.3273589249998</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -33655,10 +33655,10 @@
       </c>
       <c r="M242" s="3">
         <f t="shared" si="15"/>
-        <v>3.3014461323006628</v>
+        <v>1579.9980231749998</v>
       </c>
       <c r="N242" s="1">
-        <v>3.3014461323006628</v>
+        <v>1579.9980231749998</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -33703,10 +33703,10 @@
       </c>
       <c r="M243" s="3">
         <f t="shared" si="15"/>
-        <v>3.2462698620559496</v>
+        <v>1568.8908914250001</v>
       </c>
       <c r="N243" s="1">
-        <v>3.2462698620559496</v>
+        <v>1568.8908914250001</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -33751,10 +33751,10 @@
       </c>
       <c r="M244" s="3">
         <f t="shared" si="15"/>
-        <v>3.1590480121713953</v>
+        <v>1539.999650475</v>
       </c>
       <c r="N244" s="1">
-        <v>3.1590480121713953</v>
+        <v>1539.999650475</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -33799,10 +33799,10 @@
       </c>
       <c r="M245" s="3">
         <f t="shared" si="15"/>
-        <v>3.0648435272429029</v>
+        <v>1516.7699118</v>
       </c>
       <c r="N245" s="1">
-        <v>3.0648435272429029</v>
+        <v>1516.7699118</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -33847,10 +33847,10 @@
       </c>
       <c r="M246" s="3">
         <f t="shared" si="15"/>
-        <v>2.9821427243944703</v>
+        <v>1491.7000955999999</v>
       </c>
       <c r="N246" s="1">
-        <v>2.9821427243944703</v>
+        <v>1491.7000955999999</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -33895,10 +33895,10 @@
       </c>
       <c r="M247" s="3">
         <f t="shared" si="15"/>
-        <v>2.8716439013612423</v>
+        <v>1453.2975546375001</v>
       </c>
       <c r="N247" s="1">
-        <v>2.8716439013612423</v>
+        <v>1453.2975546375001</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -33943,10 +33943,10 @@
       </c>
       <c r="M248" s="3">
         <f t="shared" si="15"/>
-        <v>2.822647339978269</v>
+        <v>1446.7626405375001</v>
       </c>
       <c r="N248" s="1">
-        <v>2.822647339978269</v>
+        <v>1446.7626405375001</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -33991,10 +33991,10 @@
       </c>
       <c r="M249" s="3">
         <f t="shared" si="15"/>
-        <v>2.75208172251592</v>
+        <v>1423.9888537875001</v>
       </c>
       <c r="N249" s="1">
-        <v>2.75208172251592</v>
+        <v>1423.9888537875001</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -34039,10 +34039,10 @@
       </c>
       <c r="M250" s="3">
         <f t="shared" si="15"/>
-        <v>2.7077724654154767</v>
+        <v>1417.2926303249999</v>
       </c>
       <c r="N250" s="1">
-        <v>2.7077724654154767</v>
+        <v>1417.2926303249999</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -34087,10 +34087,10 @@
       </c>
       <c r="M251" s="3">
         <f t="shared" si="15"/>
-        <v>2.6151145468698354</v>
+        <v>1383.0690534375001</v>
       </c>
       <c r="N251" s="1">
-        <v>2.6151145468698354</v>
+        <v>1383.0690534375001</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -34135,10 +34135,10 @@
       </c>
       <c r="M252" s="3">
         <f t="shared" si="15"/>
-        <v>2.5264201096389711</v>
+        <v>1351.4208708000001</v>
       </c>
       <c r="N252" s="1">
-        <v>2.5264201096389711</v>
+        <v>1351.4208708000001</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -34183,10 +34183,10 @@
       </c>
       <c r="M253" s="3">
         <f t="shared" si="15"/>
-        <v>2.465040193616109</v>
+        <v>1333.5859679999999</v>
       </c>
       <c r="N253" s="1">
-        <v>2.465040193616109</v>
+        <v>1333.5859679999999</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -34231,10 +34231,10 @@
       </c>
       <c r="M254" s="3">
         <f t="shared" si="15"/>
-        <v>2.4047330886129714</v>
+        <v>1317.0199131375</v>
       </c>
       <c r="N254" s="1">
-        <v>2.4047330886129714</v>
+        <v>1317.0199131375</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -34279,10 +34279,10 @@
       </c>
       <c r="M255" s="3">
         <f t="shared" si="15"/>
-        <v>2.3493908798966294</v>
+        <v>1299.8512795125</v>
       </c>
       <c r="N255" s="1">
-        <v>2.3493908798966294</v>
+        <v>1299.8512795125</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
@@ -34327,10 +34327,10 @@
       </c>
       <c r="M256" s="3">
         <f t="shared" si="15"/>
-        <v>2.2961283141638904</v>
+        <v>1283.291177025</v>
       </c>
       <c r="N256" s="1">
-        <v>2.2961283141638904</v>
+        <v>1283.291177025</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
@@ -34375,10 +34375,10 @@
       </c>
       <c r="M257" s="3">
         <f t="shared" si="15"/>
-        <v>2.2689957980147328</v>
+        <v>1275.8159860875001</v>
       </c>
       <c r="N257" s="1">
-        <v>2.2689957980147328</v>
+        <v>1275.8159860875001</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -34423,10 +34423,10 @@
       </c>
       <c r="M258" s="3">
         <f t="shared" si="15"/>
-        <v>2.1978006923999334</v>
+        <v>1250.7251381625001</v>
       </c>
       <c r="N258" s="1">
-        <v>2.1978006923999334</v>
+        <v>1250.7251381625001</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
@@ -34470,11 +34470,11 @@
         <v>160.40414079999999</v>
       </c>
       <c r="M259" s="3">
-        <f t="shared" ref="M259:M322" si="19">H259/J259</f>
-        <v>2.1477520796290146</v>
+        <f t="shared" ref="M259:N322" si="19">D259*K259</f>
+        <v>1236.9537233625001</v>
       </c>
       <c r="N259" s="1">
-        <v>2.1477520796290146</v>
+        <v>1236.9537233625001</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
@@ -34519,10 +34519,10 @@
       </c>
       <c r="M260" s="3">
         <f t="shared" si="19"/>
-        <v>2.0838640448488679</v>
+        <v>1213.292040675</v>
       </c>
       <c r="N260" s="1">
-        <v>2.0838640448488679</v>
+        <v>1213.292040675</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -34567,10 +34567,10 @@
       </c>
       <c r="M261" s="3">
         <f t="shared" si="19"/>
-        <v>2.0573998042003621</v>
+        <v>1208.5761723750002</v>
       </c>
       <c r="N261" s="1">
-        <v>2.0573998042003621</v>
+        <v>1208.5761723750002</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
@@ -34615,10 +34615,10 @@
       </c>
       <c r="M262" s="3">
         <f t="shared" si="19"/>
-        <v>1.9989580560794402</v>
+        <v>1185.8037745125</v>
       </c>
       <c r="N262" s="1">
-        <v>1.9989580560794402</v>
+        <v>1185.8037745125</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -34663,10 +34663,10 @@
       </c>
       <c r="M263" s="3">
         <f t="shared" si="19"/>
-        <v>1.9752185125219448</v>
+        <v>1180.9265968499999</v>
       </c>
       <c r="N263" s="1">
-        <v>1.9752185125219448</v>
+        <v>1180.9265968499999</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -34711,10 +34711,10 @@
       </c>
       <c r="M264" s="3">
         <f t="shared" si="19"/>
-        <v>1.9371687019030408</v>
+        <v>1167.221055</v>
       </c>
       <c r="N264" s="1">
-        <v>1.9371687019030408</v>
+        <v>1167.221055</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -34759,10 +34759,10 @@
       </c>
       <c r="M265" s="3">
         <f t="shared" si="19"/>
-        <v>1.8983432882975058</v>
+        <v>1154.9633291625</v>
       </c>
       <c r="N265" s="1">
-        <v>1.8983432882975058</v>
+        <v>1154.9633291625</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -34807,10 +34807,10 @@
       </c>
       <c r="M266" s="3">
         <f t="shared" si="19"/>
-        <v>1.8627142211279797</v>
+        <v>1142.0583817500001</v>
       </c>
       <c r="N266" s="1">
-        <v>1.8627142211279797</v>
+        <v>1142.0583817500001</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -34855,10 +34855,10 @@
       </c>
       <c r="M267" s="3">
         <f t="shared" si="19"/>
-        <v>1.7956523693988655</v>
+        <v>1116.8800339125</v>
       </c>
       <c r="N267" s="1">
-        <v>1.7956523693988655</v>
+        <v>1116.8800339125</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -34903,10 +34903,10 @@
       </c>
       <c r="M268" s="3">
         <f t="shared" si="19"/>
-        <v>1.7325557088980241</v>
+        <v>1093.123113225</v>
       </c>
       <c r="N268" s="1">
-        <v>1.7325557088980241</v>
+        <v>1093.123113225</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -34951,10 +34951,10 @@
       </c>
       <c r="M269" s="3">
         <f t="shared" si="19"/>
-        <v>1.6739441382316103</v>
+        <v>1070.2019059874999</v>
       </c>
       <c r="N269" s="1">
-        <v>1.6739441382316103</v>
+        <v>1070.2019059874999</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
@@ -34999,10 +34999,10 @@
       </c>
       <c r="M270" s="3">
         <f t="shared" si="19"/>
-        <v>1.6400698021378692</v>
+        <v>1062.44576295</v>
       </c>
       <c r="N270" s="1">
-        <v>1.6400698021378692</v>
+        <v>1062.44576295</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -35047,10 +35047,10 @@
       </c>
       <c r="M271" s="3">
         <f t="shared" si="19"/>
-        <v>1.5984101441411342</v>
+        <v>1047.1193893875</v>
       </c>
       <c r="N271" s="1">
-        <v>1.5984101441411342</v>
+        <v>1047.1193893875</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -35095,10 +35095,10 @@
       </c>
       <c r="M272" s="3">
         <f t="shared" si="19"/>
-        <v>1.5478378835161779</v>
+        <v>1026.2811165749999</v>
       </c>
       <c r="N272" s="1">
-        <v>1.5478378835161779</v>
+        <v>1026.2811165749999</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
@@ -35143,10 +35143,10 @@
       </c>
       <c r="M273" s="3">
         <f t="shared" si="19"/>
-        <v>1.5107254097773941</v>
+        <v>1011.8880754125</v>
       </c>
       <c r="N273" s="1">
-        <v>1.5107254097773941</v>
+        <v>1011.8880754125</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -35191,10 +35191,10 @@
       </c>
       <c r="M274" s="3">
         <f t="shared" si="19"/>
-        <v>1.4625434202665306</v>
+        <v>994.09404558749998</v>
       </c>
       <c r="N274" s="1">
-        <v>1.4625434202665306</v>
+        <v>994.09404558749998</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
@@ -35239,10 +35239,10 @@
       </c>
       <c r="M275" s="3">
         <f t="shared" si="19"/>
-        <v>1.4287415894512454</v>
+        <v>980.89901909999992</v>
       </c>
       <c r="N275" s="1">
-        <v>1.4287415894512454</v>
+        <v>980.89901909999992</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
@@ -35287,10 +35287,10 @@
       </c>
       <c r="M276" s="3">
         <f t="shared" si="19"/>
-        <v>1.3874394996434831</v>
+        <v>962.94685451249995</v>
       </c>
       <c r="N276" s="1">
-        <v>1.3874394996434831</v>
+        <v>962.94685451249995</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -35335,10 +35335,10 @@
       </c>
       <c r="M277" s="3">
         <f t="shared" si="19"/>
-        <v>1.3551608043999115</v>
+        <v>951.6349610625</v>
       </c>
       <c r="N277" s="1">
-        <v>1.3551608043999115</v>
+        <v>951.6349610625</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -35383,10 +35383,10 @@
       </c>
       <c r="M278" s="3">
         <f t="shared" si="19"/>
-        <v>1.3309130090139381</v>
+        <v>946.42802182499997</v>
       </c>
       <c r="N278" s="1">
-        <v>1.3309130090139381</v>
+        <v>946.42802182499997</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -35431,10 +35431,10 @@
       </c>
       <c r="M279" s="3">
         <f t="shared" si="19"/>
-        <v>1.2782207956016438</v>
+        <v>921.14431695000007</v>
       </c>
       <c r="N279" s="1">
-        <v>1.2782207956016438</v>
+        <v>921.14431695000007</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -35479,10 +35479,10 @@
       </c>
       <c r="M280" s="3">
         <f t="shared" si="19"/>
-        <v>1.2290213805683059</v>
+        <v>897.48441997500004</v>
       </c>
       <c r="N280" s="1">
-        <v>1.2290213805683059</v>
+        <v>897.48441997500004</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -35527,10 +35527,10 @@
       </c>
       <c r="M281" s="3">
         <f t="shared" si="19"/>
-        <v>1.195203508764253</v>
+        <v>884.36340135</v>
       </c>
       <c r="N281" s="1">
-        <v>1.195203508764253</v>
+        <v>884.36340135</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -35575,10 +35575,10 @@
       </c>
       <c r="M282" s="3">
         <f t="shared" si="19"/>
-        <v>1.1758548981508861</v>
+        <v>879.99614381250012</v>
       </c>
       <c r="N282" s="1">
-        <v>1.1758548981508861</v>
+        <v>879.99614381250012</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -35623,10 +35623,10 @@
       </c>
       <c r="M283" s="3">
         <f t="shared" si="19"/>
-        <v>1.1443504246700074</v>
+        <v>867.63683077500013</v>
       </c>
       <c r="N283" s="1">
-        <v>1.1443504246700074</v>
+        <v>867.63683077500013</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -35671,10 +35671,10 @@
       </c>
       <c r="M284" s="3">
         <f t="shared" si="19"/>
-        <v>1.1152220724863875</v>
+        <v>855.07751793750003</v>
       </c>
       <c r="N284" s="1">
-        <v>1.1152220724863875</v>
+        <v>855.07751793750003</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -35719,10 +35719,10 @@
       </c>
       <c r="M285" s="3">
         <f t="shared" si="19"/>
-        <v>1.0945472687475417</v>
+        <v>845.72534474999998</v>
       </c>
       <c r="N285" s="1">
-        <v>1.0945472687475417</v>
+        <v>845.72534474999998</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -35767,10 +35767,10 @@
       </c>
       <c r="M286" s="3">
         <f t="shared" si="19"/>
-        <v>1.0725594521130823</v>
+        <v>837.99678104999998</v>
       </c>
       <c r="N286" s="1">
-        <v>1.0725594521130823</v>
+        <v>837.99678104999998</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -35815,10 +35815,10 @@
       </c>
       <c r="M287" s="3">
         <f t="shared" si="19"/>
-        <v>1.0536412953534378</v>
+        <v>828.82496482500005</v>
       </c>
       <c r="N287" s="1">
-        <v>1.0536412953534378</v>
+        <v>828.82496482500005</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -35863,10 +35863,10 @@
       </c>
       <c r="M288" s="3">
         <f t="shared" si="19"/>
-        <v>1.0334233901238883</v>
+        <v>821.22655972500002</v>
       </c>
       <c r="N288" s="1">
-        <v>1.0334233901238883</v>
+        <v>821.22655972500002</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -35911,10 +35911,10 @@
       </c>
       <c r="M289" s="3">
         <f t="shared" si="19"/>
-        <v>1.006452626623227</v>
+        <v>805.17300434999993</v>
       </c>
       <c r="N289" s="1">
-        <v>1.006452626623227</v>
+        <v>805.17300434999993</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -35959,10 +35959,10 @@
       </c>
       <c r="M290" s="3">
         <f t="shared" si="19"/>
-        <v>0.99300219651909849</v>
+        <v>801.12241316249992</v>
       </c>
       <c r="N290" s="1">
-        <v>0.99300219651909849</v>
+        <v>801.12241316249992</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
@@ -36007,10 +36007,10 @@
       </c>
       <c r="M291" s="3">
         <f t="shared" si="19"/>
-        <v>0.97636643160882775</v>
+        <v>792.98273876249993</v>
       </c>
       <c r="N291" s="1">
-        <v>0.97636643160882775</v>
+        <v>792.98273876249993</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
@@ -36055,10 +36055,10 @@
       </c>
       <c r="M292" s="3">
         <f t="shared" si="19"/>
-        <v>0.96482432093695991</v>
+        <v>788.19683084999997</v>
       </c>
       <c r="N292" s="1">
-        <v>0.96482432093695991</v>
+        <v>788.19683084999997</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -36103,10 +36103,10 @@
       </c>
       <c r="M293" s="3">
         <f t="shared" si="19"/>
-        <v>0.96269966283085895</v>
+        <v>789.75615468750004</v>
       </c>
       <c r="N293" s="1">
-        <v>0.96269966283085895</v>
+        <v>789.75615468750004</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -36151,10 +36151,10 @@
       </c>
       <c r="M294" s="3">
         <f t="shared" si="19"/>
-        <v>0.95266459118615343</v>
+        <v>784.11409683749991</v>
       </c>
       <c r="N294" s="1">
-        <v>0.95266459118615343</v>
+        <v>784.11409683749991</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
@@ -36199,10 +36199,10 @@
       </c>
       <c r="M295" s="3">
         <f t="shared" si="19"/>
-        <v>4.6515872983537863</v>
+        <v>1881.871425005</v>
       </c>
       <c r="N295" s="1">
-        <v>4.6515872983537863</v>
+        <v>1881.871425005</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
@@ -36247,10 +36247,10 @@
       </c>
       <c r="M296" s="3">
         <f t="shared" si="19"/>
-        <v>4.625653937872257</v>
+        <v>1889.229777435</v>
       </c>
       <c r="N296" s="1">
-        <v>4.625653937872257</v>
+        <v>1889.229777435</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
@@ -36295,10 +36295,10 @@
       </c>
       <c r="M297" s="3">
         <f t="shared" si="19"/>
-        <v>4.5935897974967252</v>
+        <v>1898.4102576724999</v>
       </c>
       <c r="N297" s="1">
-        <v>4.5935897974967252</v>
+        <v>1898.4102576724999</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -36343,10 +36343,10 @@
       </c>
       <c r="M298" s="3">
         <f t="shared" si="19"/>
-        <v>4.4776431254242688</v>
+        <v>1867.9172987474999</v>
       </c>
       <c r="N298" s="1">
-        <v>4.4776431254242688</v>
+        <v>1867.9172987474999</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -36391,10 +36391,10 @@
       </c>
       <c r="M299" s="3">
         <f t="shared" si="19"/>
-        <v>4.3725638538584812</v>
+        <v>1836.8865625824999</v>
       </c>
       <c r="N299" s="1">
-        <v>4.3725638538584812</v>
+        <v>1836.8865625824999</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -36439,10 +36439,10 @@
       </c>
       <c r="M300" s="3">
         <f t="shared" si="19"/>
-        <v>4.263010914079838</v>
+        <v>1809.6902538000002</v>
       </c>
       <c r="N300" s="1">
-        <v>4.263010914079838</v>
+        <v>1809.6902538000002</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
@@ -36487,10 +36487,10 @@
       </c>
       <c r="M301" s="3">
         <f t="shared" si="19"/>
-        <v>4.0790231169405562</v>
+        <v>1751.6795710700001</v>
       </c>
       <c r="N301" s="1">
-        <v>4.0790231169405562</v>
+        <v>1751.6795710700001</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -36535,10 +36535,10 @@
       </c>
       <c r="M302" s="3">
         <f t="shared" si="19"/>
-        <v>4.0598964852911683</v>
+        <v>1757.5843535250001</v>
       </c>
       <c r="N302" s="1">
-        <v>4.0598964852911683</v>
+        <v>1757.5843535250001</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
@@ -36583,10 +36583,10 @@
       </c>
       <c r="M303" s="3">
         <f t="shared" si="19"/>
-        <v>3.9577570013079497</v>
+        <v>1735.0719157199999</v>
       </c>
       <c r="N303" s="1">
-        <v>3.9577570013079497</v>
+        <v>1735.0719157199999</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -36631,10 +36631,10 @@
       </c>
       <c r="M304" s="3">
         <f t="shared" si="19"/>
-        <v>3.8648298992217121</v>
+        <v>1711.76765331</v>
       </c>
       <c r="N304" s="1">
-        <v>3.8648298992217121</v>
+        <v>1711.76765331</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -36679,10 +36679,10 @@
       </c>
       <c r="M305" s="3">
         <f t="shared" si="19"/>
-        <v>3.831909287610221</v>
+        <v>1722.3618358374999</v>
       </c>
       <c r="N305" s="1">
-        <v>3.831909287610221</v>
+        <v>1722.3618358374999</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
@@ -36727,10 +36727,10 @@
       </c>
       <c r="M306" s="3">
         <f t="shared" si="19"/>
-        <v>3.748414401680991</v>
+        <v>1698.1342145624999</v>
       </c>
       <c r="N306" s="1">
-        <v>3.748414401680991</v>
+        <v>1698.1342145624999</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
@@ -36775,10 +36775,10 @@
       </c>
       <c r="M307" s="3">
         <f t="shared" si="19"/>
-        <v>3.6679752107368384</v>
+        <v>1674.76054746</v>
       </c>
       <c r="N307" s="1">
-        <v>3.6679752107368384</v>
+        <v>1674.76054746</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -36823,10 +36823,10 @@
       </c>
       <c r="M308" s="3">
         <f t="shared" si="19"/>
-        <v>3.5314699601985748</v>
+        <v>1625.0318670300001</v>
       </c>
       <c r="N308" s="1">
-        <v>3.5314699601985748</v>
+        <v>1625.0318670300001</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
@@ -36871,10 +36871,10 @@
       </c>
       <c r="M309" s="3">
         <f t="shared" si="19"/>
-        <v>3.515634716572444</v>
+        <v>1630.3998907625</v>
       </c>
       <c r="N309" s="1">
-        <v>3.515634716572444</v>
+        <v>1630.3998907625</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
@@ -36919,10 +36919,10 @@
       </c>
       <c r="M310" s="3">
         <f t="shared" si="19"/>
-        <v>3.5044005489718932</v>
+        <v>1634.230244075</v>
       </c>
       <c r="N310" s="1">
-        <v>3.5044005489718932</v>
+        <v>1634.230244075</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
@@ -36967,10 +36967,10 @@
       </c>
       <c r="M311" s="3">
         <f t="shared" si="19"/>
-        <v>3.3844550302996472</v>
+        <v>1585.2353327525</v>
       </c>
       <c r="N311" s="1">
-        <v>3.3844550302996472</v>
+        <v>1585.2353327525</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -37015,10 +37015,10 @@
       </c>
       <c r="M312" s="3">
         <f t="shared" si="19"/>
-        <v>3.3588234351027428</v>
+        <v>1594.16904075</v>
       </c>
       <c r="N312" s="1">
-        <v>3.3588234351027428</v>
+        <v>1594.16904075</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
@@ -37063,10 +37063,10 @@
       </c>
       <c r="M313" s="3">
         <f t="shared" si="19"/>
-        <v>3.235177048956408</v>
+        <v>1552.3325614225</v>
       </c>
       <c r="N313" s="1">
-        <v>3.235177048956408</v>
+        <v>1552.3325614225</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
@@ -37111,10 +37111,10 @@
       </c>
       <c r="M314" s="3">
         <f t="shared" si="19"/>
-        <v>3.1231544093330914</v>
+        <v>1511.64526084</v>
       </c>
       <c r="N314" s="1">
-        <v>3.1231544093330914</v>
+        <v>1511.64526084</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
@@ -37159,10 +37159,10 @@
       </c>
       <c r="M315" s="3">
         <f t="shared" si="19"/>
-        <v>3.0621216111976639</v>
+        <v>1494.9981743124999</v>
       </c>
       <c r="N315" s="1">
-        <v>3.0621216111976639</v>
+        <v>1494.9981743124999</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
@@ -37207,10 +37207,10 @@
       </c>
       <c r="M316" s="3">
         <f t="shared" si="19"/>
-        <v>2.999354137462737</v>
+        <v>1480.2241414675</v>
       </c>
       <c r="N316" s="1">
-        <v>2.999354137462737</v>
+        <v>1480.2241414675</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.3">
@@ -37255,10 +37255,10 @@
       </c>
       <c r="M317" s="3">
         <f t="shared" si="19"/>
-        <v>2.9332716130561587</v>
+        <v>1467.9219050924999</v>
       </c>
       <c r="N317" s="1">
-        <v>2.9332716130561587</v>
+        <v>1467.9219050924999</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.3">
@@ -37303,10 +37303,10 @@
       </c>
       <c r="M318" s="3">
         <f t="shared" si="19"/>
-        <v>2.8729158059068416</v>
+        <v>1454.6536776200001</v>
       </c>
       <c r="N318" s="1">
-        <v>2.8729158059068416</v>
+        <v>1454.6536776200001</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
@@ -37351,10 +37351,10 @@
       </c>
       <c r="M319" s="3">
         <f t="shared" si="19"/>
-        <v>2.7745201923948746</v>
+        <v>1422.7608391425001</v>
       </c>
       <c r="N319" s="1">
-        <v>2.7745201923948746</v>
+        <v>1422.7608391425001</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
@@ -37399,10 +37399,10 @@
       </c>
       <c r="M320" s="3">
         <f t="shared" si="19"/>
-        <v>2.6450938198782459</v>
+        <v>1375.0086646725001</v>
       </c>
       <c r="N320" s="1">
-        <v>2.6450938198782459</v>
+        <v>1375.0086646725001</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
@@ -37447,10 +37447,10 @@
       </c>
       <c r="M321" s="3">
         <f t="shared" si="19"/>
-        <v>2.627948570191875</v>
+        <v>1381.90999375</v>
       </c>
       <c r="N321" s="1">
-        <v>2.627948570191875</v>
+        <v>1381.90999375</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
@@ -37495,10 +37495,10 @@
       </c>
       <c r="M322" s="3">
         <f t="shared" si="19"/>
-        <v>2.5773615003003734</v>
+        <v>1370.8825047774999</v>
       </c>
       <c r="N322" s="1">
-        <v>2.5773615003003734</v>
+        <v>1370.8825047774999</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
@@ -37542,11 +37542,11 @@
         <v>108.4346</v>
       </c>
       <c r="M323" s="3">
-        <f t="shared" ref="M323:M386" si="23">H323/J323</f>
-        <v>2.4994718087664274</v>
+        <f t="shared" ref="M323:N386" si="23">D323*K323</f>
+        <v>1341.8457348725001</v>
       </c>
       <c r="N323" s="1">
-        <v>2.4994718087664274</v>
+        <v>1341.8457348725001</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
@@ -37591,10 +37591,10 @@
       </c>
       <c r="M324" s="3">
         <f t="shared" si="23"/>
-        <v>2.4241910959583022</v>
+        <v>1314.8561851425</v>
       </c>
       <c r="N324" s="1">
-        <v>2.4241910959583022</v>
+        <v>1314.8561851425</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
@@ -37639,10 +37639,10 @@
       </c>
       <c r="M325" s="3">
         <f t="shared" si="23"/>
-        <v>2.4158196596618136</v>
+        <v>1318.4045546100001</v>
       </c>
       <c r="N325" s="1">
-        <v>2.4158196596618136</v>
+        <v>1318.4045546100001</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
@@ -37687,10 +37687,10 @@
       </c>
       <c r="M326" s="3">
         <f t="shared" si="23"/>
-        <v>2.3130499757228531</v>
+        <v>1279.1123319975002</v>
       </c>
       <c r="N326" s="1">
-        <v>2.3130499757228531</v>
+        <v>1279.1123319975002</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.3">
@@ -37735,10 +37735,10 @@
       </c>
       <c r="M327" s="3">
         <f t="shared" si="23"/>
-        <v>2.2718618368983208</v>
+        <v>1270.4120100099999</v>
       </c>
       <c r="N327" s="1">
-        <v>2.2718618368983208</v>
+        <v>1270.4120100099999</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
@@ -37783,10 +37783,10 @@
       </c>
       <c r="M328" s="3">
         <f t="shared" si="23"/>
-        <v>2.2027198994972523</v>
+        <v>1249.212586765</v>
       </c>
       <c r="N328" s="1">
-        <v>2.2027198994972523</v>
+        <v>1249.212586765</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.3">
@@ -37831,10 +37831,10 @@
       </c>
       <c r="M329" s="3">
         <f t="shared" si="23"/>
-        <v>2.1182114004751034</v>
+        <v>1213.3203210699999</v>
       </c>
       <c r="N329" s="1">
-        <v>2.1182114004751034</v>
+        <v>1213.3203210699999</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.3">
@@ -37879,10 +37879,10 @@
       </c>
       <c r="M330" s="3">
         <f t="shared" si="23"/>
-        <v>2.083591832814617</v>
+        <v>1205.4294294900001</v>
       </c>
       <c r="N330" s="1">
-        <v>2.083591832814617</v>
+        <v>1205.4294294900001</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
@@ -37927,10 +37927,10 @@
       </c>
       <c r="M331" s="3">
         <f t="shared" si="23"/>
-        <v>2.0487281999957583</v>
+        <v>1198.2426245075001</v>
       </c>
       <c r="N331" s="1">
-        <v>2.0487281999957583</v>
+        <v>1198.2426245075001</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
@@ -37975,10 +37975,10 @@
       </c>
       <c r="M332" s="3">
         <f t="shared" si="23"/>
-        <v>1.9936005422749044</v>
+        <v>1178.68199592</v>
       </c>
       <c r="N332" s="1">
-        <v>1.9936005422749044</v>
+        <v>1178.68199592</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
@@ -38023,10 +38023,10 @@
       </c>
       <c r="M333" s="3">
         <f t="shared" si="23"/>
-        <v>1.9398677058294582</v>
+        <v>1160.4551887499999</v>
       </c>
       <c r="N333" s="1">
-        <v>1.9398677058294582</v>
+        <v>1160.4551887499999</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
@@ -38071,10 +38071,10 @@
       </c>
       <c r="M334" s="3">
         <f t="shared" si="23"/>
-        <v>1.888498526566089</v>
+        <v>1142.9860130975001</v>
       </c>
       <c r="N334" s="1">
-        <v>1.888498526566089</v>
+        <v>1142.9860130975001</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
@@ -38119,10 +38119,10 @@
       </c>
       <c r="M335" s="3">
         <f t="shared" si="23"/>
-        <v>1.8213810198348543</v>
+        <v>1115.2088583350001</v>
       </c>
       <c r="N335" s="1">
-        <v>1.8213810198348543</v>
+        <v>1115.2088583350001</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
@@ -38167,10 +38167,10 @@
       </c>
       <c r="M336" s="3">
         <f t="shared" si="23"/>
-        <v>1.7922765343801002</v>
+        <v>1110.1391147275001</v>
       </c>
       <c r="N336" s="1">
-        <v>1.7922765343801002</v>
+        <v>1110.1391147275001</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.3">
@@ -38215,10 +38215,10 @@
       </c>
       <c r="M337" s="3">
         <f t="shared" si="23"/>
-        <v>1.7298501608126993</v>
+        <v>1084.8491796999999</v>
       </c>
       <c r="N337" s="1">
-        <v>1.7298501608126993</v>
+        <v>1084.8491796999999</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.3">
@@ -38263,10 +38263,10 @@
       </c>
       <c r="M338" s="3">
         <f t="shared" si="23"/>
-        <v>1.6882034592563369</v>
+        <v>1069.850490995</v>
       </c>
       <c r="N338" s="1">
-        <v>1.6882034592563369</v>
+        <v>1069.850490995</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.3">
@@ -38311,10 +38311,10 @@
       </c>
       <c r="M339" s="3">
         <f t="shared" si="23"/>
-        <v>1.6490540031150882</v>
+        <v>1054.9609291649999</v>
       </c>
       <c r="N339" s="1">
-        <v>1.6490540031150882</v>
+        <v>1054.9609291649999</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.3">
@@ -38359,10 +38359,10 @@
       </c>
       <c r="M340" s="3">
         <f t="shared" si="23"/>
-        <v>1.6089081325634416</v>
+        <v>1041.9391829275</v>
       </c>
       <c r="N340" s="1">
-        <v>1.6089081325634416</v>
+        <v>1041.9391829275</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.3">
@@ -38407,10 +38407,10 @@
       </c>
       <c r="M341" s="3">
         <f t="shared" si="23"/>
-        <v>1.5719387678462591</v>
+        <v>1028.518468835</v>
       </c>
       <c r="N341" s="1">
-        <v>1.5719387678462591</v>
+        <v>1028.518468835</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.3">
@@ -38455,10 +38455,10 @@
       </c>
       <c r="M342" s="3">
         <f t="shared" si="23"/>
-        <v>1.5217642574129273</v>
+        <v>1007.7830530625</v>
       </c>
       <c r="N342" s="1">
-        <v>1.5217642574129273</v>
+        <v>1007.7830530625</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.3">
@@ -38503,10 +38503,10 @@
       </c>
       <c r="M343" s="3">
         <f t="shared" si="23"/>
-        <v>1.4757363741101979</v>
+        <v>987.27287516000001</v>
       </c>
       <c r="N343" s="1">
-        <v>1.4757363741101979</v>
+        <v>987.27287516000001</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.3">
@@ -38551,10 +38551,10 @@
       </c>
       <c r="M344" s="3">
         <f t="shared" si="23"/>
-        <v>1.4548066538812452</v>
+        <v>984.08797093750002</v>
       </c>
       <c r="N344" s="1">
-        <v>1.4548066538812452</v>
+        <v>984.08797093750002</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.3">
@@ -38599,10 +38599,10 @@
       </c>
       <c r="M345" s="3">
         <f t="shared" si="23"/>
-        <v>1.4099756009661355</v>
+        <v>966.03809480749999</v>
       </c>
       <c r="N345" s="1">
-        <v>1.4099756009661355</v>
+        <v>966.03809480749999</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.3">
@@ -38647,10 +38647,10 @@
       </c>
       <c r="M346" s="3">
         <f t="shared" si="23"/>
-        <v>1.3802153736214993</v>
+        <v>955.14897871250002</v>
       </c>
       <c r="N346" s="1">
-        <v>1.3802153736214993</v>
+        <v>955.14897871250002</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.3">
@@ -38695,10 +38695,10 @@
       </c>
       <c r="M347" s="3">
         <f t="shared" si="23"/>
-        <v>1.3295560763017709</v>
+        <v>930.94216429500011</v>
       </c>
       <c r="N347" s="1">
-        <v>1.3295560763017709</v>
+        <v>930.94216429500011</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.3">
@@ -38743,10 +38743,10 @@
       </c>
       <c r="M348" s="3">
         <f t="shared" si="23"/>
-        <v>1.3091965666294731</v>
+        <v>929.98097478</v>
       </c>
       <c r="N348" s="1">
-        <v>1.3091965666294731</v>
+        <v>929.98097478</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
@@ -38791,10 +38791,10 @@
       </c>
       <c r="M349" s="3">
         <f t="shared" si="23"/>
-        <v>1.2714816954020425</v>
+        <v>914.53341086250009</v>
       </c>
       <c r="N349" s="1">
-        <v>1.2714816954020425</v>
+        <v>914.53341086250009</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.3">
@@ -38839,10 +38839,10 @@
       </c>
       <c r="M350" s="3">
         <f t="shared" si="23"/>
-        <v>1.2367287442149444</v>
+        <v>899.0424872000001</v>
       </c>
       <c r="N350" s="1">
-        <v>1.2367287442149444</v>
+        <v>899.0424872000001</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.3">
@@ -38887,10 +38887,10 @@
       </c>
       <c r="M351" s="3">
         <f t="shared" si="23"/>
-        <v>1.2035499426993197</v>
+        <v>884.22276656999998</v>
       </c>
       <c r="N351" s="1">
-        <v>1.2035499426993197</v>
+        <v>884.22276656999998</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.3">
@@ -38935,10 +38935,10 @@
       </c>
       <c r="M352" s="3">
         <f t="shared" si="23"/>
-        <v>1.1707316946750415</v>
+        <v>870.73293878999993</v>
       </c>
       <c r="N352" s="1">
-        <v>1.1707316946750415</v>
+        <v>870.73293878999993</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
@@ -38983,10 +38983,10 @@
       </c>
       <c r="M353" s="3">
         <f t="shared" si="23"/>
-        <v>1.141518378316835</v>
+        <v>856.4301885425001</v>
       </c>
       <c r="N353" s="1">
-        <v>1.141518378316835</v>
+        <v>856.4301885425001</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
@@ -39031,10 +39031,10 @@
       </c>
       <c r="M354" s="3">
         <f t="shared" si="23"/>
-        <v>1.1188697061415911</v>
+        <v>849.70826404750005</v>
       </c>
       <c r="N354" s="1">
-        <v>1.1188697061415911</v>
+        <v>849.70826404750005</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
@@ -39079,10 +39079,10 @@
       </c>
       <c r="M355" s="3">
         <f t="shared" si="23"/>
-        <v>1.0836631925870703</v>
+        <v>831.51652297999999</v>
       </c>
       <c r="N355" s="1">
-        <v>1.0836631925870703</v>
+        <v>831.51652297999999</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
@@ -39127,10 +39127,10 @@
       </c>
       <c r="M356" s="3">
         <f t="shared" si="23"/>
-        <v>1.063314955903025</v>
+        <v>825.06450562250006</v>
       </c>
       <c r="N356" s="1">
-        <v>1.063314955903025</v>
+        <v>825.06450562250006</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
@@ -39175,10 +39175,10 @@
       </c>
       <c r="M357" s="3">
         <f t="shared" si="23"/>
-        <v>1.0435652892999792</v>
+        <v>818.78170767250003</v>
       </c>
       <c r="N357" s="1">
-        <v>1.0435652892999792</v>
+        <v>818.78170767250003</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
@@ -39223,10 +39223,10 @@
       </c>
       <c r="M358" s="3">
         <f t="shared" si="23"/>
-        <v>1.0175613367099321</v>
+        <v>807.91805451499999</v>
       </c>
       <c r="N358" s="1">
-        <v>1.0175613367099321</v>
+        <v>807.91805451499999</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
@@ -39271,10 +39271,10 @@
       </c>
       <c r="M359" s="3">
         <f t="shared" si="23"/>
-        <v>0.9815385286887417</v>
+        <v>787.21843235749998</v>
       </c>
       <c r="N359" s="1">
-        <v>0.9815385286887417</v>
+        <v>787.21843235749998</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
@@ -39319,10 +39319,10 @@
       </c>
       <c r="M360" s="3">
         <f t="shared" si="23"/>
-        <v>0.96504335947837794</v>
+        <v>781.17498602000001</v>
       </c>
       <c r="N360" s="1">
-        <v>0.96504335947837794</v>
+        <v>781.17498602000001</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
@@ -39367,10 +39367,10 @@
       </c>
       <c r="M361" s="3">
         <f t="shared" si="23"/>
-        <v>0.96156987430036467</v>
+        <v>783.60836983000002</v>
       </c>
       <c r="N361" s="1">
-        <v>0.96156987430036467</v>
+        <v>783.60836983000002</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
@@ -39415,10 +39415,10 @@
       </c>
       <c r="M362" s="3">
         <f t="shared" si="23"/>
-        <v>0.94175295397991754</v>
+        <v>771.93383124000002</v>
       </c>
       <c r="N362" s="1">
-        <v>0.94175295397991754</v>
+        <v>771.93383124000002</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
@@ -39463,10 +39463,10 @@
       </c>
       <c r="M363" s="3">
         <f t="shared" si="23"/>
-        <v>0.93419100572757774</v>
+        <v>768.92687657500005</v>
       </c>
       <c r="N363" s="1">
-        <v>0.93419100572757774</v>
+        <v>768.92687657500005</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
@@ -39511,10 +39511,10 @@
       </c>
       <c r="M364" s="3">
         <f t="shared" si="23"/>
-        <v>4.3332351677342027</v>
+        <v>1753.2988419375001</v>
       </c>
       <c r="N364" s="1">
-        <v>4.3332351677342027</v>
+        <v>1753.2988419375001</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
@@ -39559,10 +39559,10 @@
       </c>
       <c r="M365" s="3">
         <f t="shared" si="23"/>
-        <v>4.3024463036720739</v>
+        <v>1761.6083574375</v>
       </c>
       <c r="N365" s="1">
-        <v>4.3024463036720739</v>
+        <v>1761.6083574375</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
@@ -39607,10 +39607,10 @@
       </c>
       <c r="M366" s="3">
         <f t="shared" si="23"/>
-        <v>4.0781077813982236</v>
+        <v>1693.4592589199999</v>
       </c>
       <c r="N366" s="1">
-        <v>4.0781077813982236</v>
+        <v>1693.4592589199999</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
@@ -39655,10 +39655,10 @@
       </c>
       <c r="M367" s="3">
         <f t="shared" si="23"/>
-        <v>4.0553275731384284</v>
+        <v>1699.853776335</v>
       </c>
       <c r="N367" s="1">
-        <v>4.0553275731384284</v>
+        <v>1699.853776335</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
@@ -39703,10 +39703,10 @@
       </c>
       <c r="M368" s="3">
         <f t="shared" si="23"/>
-        <v>3.9323888532884497</v>
+        <v>1673.4234456224999</v>
       </c>
       <c r="N368" s="1">
-        <v>3.9323888532884497</v>
+        <v>1673.4234456224999</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.3">
@@ -39751,10 +39751,10 @@
       </c>
       <c r="M369" s="3">
         <f t="shared" si="23"/>
-        <v>3.7471113606721955</v>
+        <v>1611.2006507025001</v>
       </c>
       <c r="N369" s="1">
-        <v>3.7471113606721955</v>
+        <v>1611.2006507025001</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.3">
@@ -39799,10 +39799,10 @@
       </c>
       <c r="M370" s="3">
         <f t="shared" si="23"/>
-        <v>3.7241654363462713</v>
+        <v>1618.005762945</v>
       </c>
       <c r="N370" s="1">
-        <v>3.7241654363462713</v>
+        <v>1618.005762945</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.3">
@@ -39847,10 +39847,10 @@
       </c>
       <c r="M371" s="3">
         <f t="shared" si="23"/>
-        <v>3.5529524651166482</v>
+        <v>1561.3260577199999</v>
       </c>
       <c r="N371" s="1">
-        <v>3.5529524651166482</v>
+        <v>1561.3260577199999</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.3">
@@ -39895,10 +39895,10 @@
       </c>
       <c r="M372" s="3">
         <f t="shared" si="23"/>
-        <v>3.5268047190872593</v>
+        <v>1569.3537877875001</v>
       </c>
       <c r="N372" s="1">
-        <v>3.5268047190872593</v>
+        <v>1569.3537877875001</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.3">
@@ -39943,10 +39943,10 @@
       </c>
       <c r="M373" s="3">
         <f t="shared" si="23"/>
-        <v>3.4379500608312314</v>
+        <v>1545.4400021775</v>
       </c>
       <c r="N373" s="1">
-        <v>3.4379500608312314</v>
+        <v>1545.4400021775</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.3">
@@ -39991,10 +39991,10 @@
       </c>
       <c r="M374" s="3">
         <f t="shared" si="23"/>
-        <v>3.426556514515092</v>
+        <v>1549.02130812</v>
       </c>
       <c r="N374" s="1">
-        <v>3.426556514515092</v>
+        <v>1549.02130812</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.3">
@@ -40039,10 +40039,10 @@
       </c>
       <c r="M375" s="3">
         <f t="shared" si="23"/>
-        <v>3.2861746518476385</v>
+        <v>1495.54707588</v>
       </c>
       <c r="N375" s="1">
-        <v>3.2861746518476385</v>
+        <v>1495.54707588</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.3">
@@ -40087,10 +40087,10 @@
       </c>
       <c r="M376" s="3">
         <f t="shared" si="23"/>
-        <v>3.2711125277617645</v>
+        <v>1500.4021900724999</v>
       </c>
       <c r="N376" s="1">
-        <v>3.2711125277617645</v>
+        <v>1500.4021900724999</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.3">
@@ -40135,10 +40135,10 @@
       </c>
       <c r="M377" s="3">
         <f t="shared" si="23"/>
-        <v>3.1968686603738918</v>
+        <v>1477.8075698100001</v>
       </c>
       <c r="N377" s="1">
-        <v>3.1968686603738918</v>
+        <v>1477.8075698100001</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.3">
@@ -40183,10 +40183,10 @@
       </c>
       <c r="M378" s="3">
         <f t="shared" si="23"/>
-        <v>3.1234499296622196</v>
+        <v>1456.7219956575002</v>
       </c>
       <c r="N378" s="1">
-        <v>3.1234499296622196</v>
+        <v>1456.7219956575002</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
@@ -40231,10 +40231,10 @@
       </c>
       <c r="M379" s="3">
         <f t="shared" si="23"/>
-        <v>3.0489158576468882</v>
+        <v>1437.7293956025001</v>
       </c>
       <c r="N379" s="1">
-        <v>3.0489158576468882</v>
+        <v>1437.7293956025001</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.3">
@@ -40279,10 +40279,10 @@
       </c>
       <c r="M380" s="3">
         <f t="shared" si="23"/>
-        <v>3.0333226434806497</v>
+        <v>1443.0115331775</v>
       </c>
       <c r="N380" s="1">
-        <v>3.0333226434806497</v>
+        <v>1443.0115331775</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.3">
@@ -40327,10 +40327,10 @@
       </c>
       <c r="M381" s="3">
         <f t="shared" si="23"/>
-        <v>2.8078520675715417</v>
+        <v>1357.7145946649998</v>
       </c>
       <c r="N381" s="1">
-        <v>2.8078520675715417</v>
+        <v>1357.7145946649998</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.3">
@@ -40375,10 +40375,10 @@
       </c>
       <c r="M382" s="3">
         <f t="shared" si="23"/>
-        <v>2.7815727056835584</v>
+        <v>1367.0477996175</v>
       </c>
       <c r="N382" s="1">
-        <v>2.7815727056835584</v>
+        <v>1367.0477996175</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.3">
@@ -40423,10 +40423,10 @@
       </c>
       <c r="M383" s="3">
         <f t="shared" si="23"/>
-        <v>2.7198930398473329</v>
+        <v>1351.1736488249999</v>
       </c>
       <c r="N383" s="1">
-        <v>2.7198930398473329</v>
+        <v>1351.1736488249999</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.3">
@@ -40471,10 +40471,10 @@
       </c>
       <c r="M384" s="3">
         <f t="shared" si="23"/>
-        <v>2.6174418542732303</v>
+        <v>1315.6273748475001</v>
       </c>
       <c r="N384" s="1">
-        <v>2.6174418542732303</v>
+        <v>1315.6273748475001</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
@@ -40519,10 +40519,10 @@
       </c>
       <c r="M385" s="3">
         <f t="shared" si="23"/>
-        <v>2.5600872231270873</v>
+        <v>1301.9238171224999</v>
       </c>
       <c r="N385" s="1">
-        <v>2.5600872231270873</v>
+        <v>1301.9238171224999</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
@@ -40567,10 +40567,10 @@
       </c>
       <c r="M386" s="3">
         <f t="shared" si="23"/>
-        <v>2.4690804089872436</v>
+        <v>1268.9519453325001</v>
       </c>
       <c r="N386" s="1">
-        <v>2.4690804089872436</v>
+        <v>1268.9519453325001</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
@@ -40614,11 +40614,11 @@
         <v>97.420660780000006</v>
       </c>
       <c r="M387" s="3">
-        <f t="shared" ref="M387:M430" si="27">H387/J387</f>
-        <v>2.3455543319385228</v>
+        <f t="shared" ref="M387:N430" si="27">D387*K387</f>
+        <v>1221.9943732424999</v>
       </c>
       <c r="N387" s="1">
-        <v>2.3455543319385228</v>
+        <v>1221.9943732424999</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
@@ -40663,10 +40663,10 @@
       </c>
       <c r="M388" s="3">
         <f t="shared" si="27"/>
-        <v>2.3637171678071138</v>
+        <v>1245.7195876124999</v>
       </c>
       <c r="N388" s="1">
-        <v>2.3637171678071138</v>
+        <v>1245.7195876124999</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
@@ -40711,10 +40711,10 @@
       </c>
       <c r="M389" s="3">
         <f t="shared" si="27"/>
-        <v>2.2867850171599384</v>
+        <v>1215.1992609900001</v>
       </c>
       <c r="N389" s="1">
-        <v>2.2867850171599384</v>
+        <v>1215.1992609900001</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
@@ -40759,10 +40759,10 @@
       </c>
       <c r="M390" s="3">
         <f t="shared" si="27"/>
-        <v>2.2733268754974127</v>
+        <v>1220.618065095</v>
       </c>
       <c r="N390" s="1">
-        <v>2.2733268754974127</v>
+        <v>1220.618065095</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
@@ -40807,10 +40807,10 @@
       </c>
       <c r="M391" s="3">
         <f t="shared" si="27"/>
-        <v>2.2012572785113291</v>
+        <v>1191.66118929</v>
       </c>
       <c r="N391" s="1">
-        <v>2.2012572785113291</v>
+        <v>1191.66118929</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
@@ -40855,10 +40855,10 @@
       </c>
       <c r="M392" s="3">
         <f t="shared" si="27"/>
-        <v>2.1616876079258285</v>
+        <v>1179.8650106100001</v>
       </c>
       <c r="N392" s="1">
-        <v>2.1616876079258285</v>
+        <v>1179.8650106100001</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
@@ -40903,10 +40903,10 @@
       </c>
       <c r="M393" s="3">
         <f t="shared" si="27"/>
-        <v>2.1208229729903767</v>
+        <v>1169.424306765</v>
       </c>
       <c r="N393" s="1">
-        <v>2.1208229729903767</v>
+        <v>1169.424306765</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
@@ -40951,10 +40951,10 @@
       </c>
       <c r="M394" s="3">
         <f t="shared" si="27"/>
-        <v>2.0811861465266572</v>
+        <v>1159.2696740624999</v>
       </c>
       <c r="N394" s="1">
-        <v>2.0811861465266572</v>
+        <v>1159.2696740624999</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
@@ -40999,10 +40999,10 @@
       </c>
       <c r="M395" s="3">
         <f t="shared" si="27"/>
-        <v>1.9680974779505491</v>
+        <v>1106.2221080625</v>
       </c>
       <c r="N395" s="1">
-        <v>1.9680974779505491</v>
+        <v>1106.2221080625</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
@@ -41047,10 +41047,10 @@
       </c>
       <c r="M396" s="3">
         <f t="shared" si="27"/>
-        <v>1.9525334859091208</v>
+        <v>1113.0337679175</v>
       </c>
       <c r="N396" s="1">
-        <v>1.9525334859091208</v>
+        <v>1113.0337679175</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
@@ -41095,10 +41095,10 @@
       </c>
       <c r="M397" s="3">
         <f t="shared" si="27"/>
-        <v>1.8711830255707738</v>
+        <v>1078.3930882725001</v>
       </c>
       <c r="N397" s="1">
-        <v>1.8711830255707738</v>
+        <v>1078.3930882725001</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
@@ -41143,10 +41143,10 @@
       </c>
       <c r="M398" s="3">
         <f t="shared" si="27"/>
-        <v>1.8155027527282843</v>
+        <v>1058.816798325</v>
       </c>
       <c r="N398" s="1">
-        <v>1.8155027527282843</v>
+        <v>1058.816798325</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
@@ -41191,10 +41191,10 @@
       </c>
       <c r="M399" s="3">
         <f t="shared" si="27"/>
-        <v>1.7586738352327902</v>
+        <v>1041.9599104200001</v>
       </c>
       <c r="N399" s="1">
-        <v>1.7586738352327902</v>
+        <v>1041.9599104200001</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
@@ -41239,10 +41239,10 @@
       </c>
       <c r="M400" s="3">
         <f t="shared" si="27"/>
-        <v>1.7471252241693973</v>
+        <v>1047.3630002550001</v>
       </c>
       <c r="N400" s="1">
-        <v>1.7471252241693973</v>
+        <v>1047.3630002550001</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
@@ -41287,10 +41287,10 @@
       </c>
       <c r="M401" s="3">
         <f t="shared" si="27"/>
-        <v>1.6981969023529506</v>
+        <v>1028.96801865</v>
       </c>
       <c r="N401" s="1">
-        <v>1.6981969023529506</v>
+        <v>1028.96801865</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
@@ -41335,10 +41335,10 @@
       </c>
       <c r="M402" s="3">
         <f t="shared" si="27"/>
-        <v>1.6687184135837432</v>
+        <v>1022.9163580349999</v>
       </c>
       <c r="N402" s="1">
-        <v>1.6687184135837432</v>
+        <v>1022.9163580349999</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
@@ -41383,10 +41383,10 @@
       </c>
       <c r="M403" s="3">
         <f t="shared" si="27"/>
-        <v>1.6233462840483768</v>
+        <v>1005.6748276575</v>
       </c>
       <c r="N403" s="1">
-        <v>1.6233462840483768</v>
+        <v>1005.6748276575</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
@@ -41431,10 +41431,10 @@
       </c>
       <c r="M404" s="3">
         <f t="shared" si="27"/>
-        <v>1.5451416367657709</v>
+        <v>970.08569657999988</v>
       </c>
       <c r="N404" s="1">
-        <v>1.5451416367657709</v>
+        <v>970.08569657999988</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
@@ -41479,10 +41479,10 @@
       </c>
       <c r="M405" s="3">
         <f t="shared" si="27"/>
-        <v>1.519780321903573</v>
+        <v>965.11117774500008</v>
       </c>
       <c r="N405" s="1">
-        <v>1.519780321903573</v>
+        <v>965.11117774500008</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
@@ -41527,10 +41527,10 @@
       </c>
       <c r="M406" s="3">
         <f t="shared" si="27"/>
-        <v>1.4817537732319563</v>
+        <v>949.88595487499992</v>
       </c>
       <c r="N406" s="1">
-        <v>1.4817537732319563</v>
+        <v>949.88595487499992</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
@@ -41575,10 +41575,10 @@
       </c>
       <c r="M407" s="3">
         <f t="shared" si="27"/>
-        <v>1.4438082806562882</v>
+        <v>936.05454013499991</v>
       </c>
       <c r="N407" s="1">
-        <v>1.4438082806562882</v>
+        <v>936.05454013499991</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
@@ -41623,10 +41623,10 @@
       </c>
       <c r="M408" s="3">
         <f t="shared" si="27"/>
-        <v>1.394139679278698</v>
+        <v>914.02801454250005</v>
       </c>
       <c r="N408" s="1">
-        <v>1.394139679278698</v>
+        <v>914.02801454250005</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
@@ -41671,10 +41671,10 @@
       </c>
       <c r="M409" s="3">
         <f t="shared" si="27"/>
-        <v>1.3598488124018551</v>
+        <v>901.54100321999999</v>
       </c>
       <c r="N409" s="1">
-        <v>1.3598488124018551</v>
+        <v>901.54100321999999</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
@@ -41719,10 +41719,10 @@
       </c>
       <c r="M410" s="3">
         <f t="shared" si="27"/>
-        <v>1.3136255005765691</v>
+        <v>882.21899873250004</v>
       </c>
       <c r="N410" s="1">
-        <v>1.3136255005765691</v>
+        <v>882.21899873250004</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
@@ -41767,10 +41767,10 @@
       </c>
       <c r="M411" s="3">
         <f t="shared" si="27"/>
-        <v>1.3069760761441795</v>
+        <v>885.87554269500004</v>
       </c>
       <c r="N411" s="1">
-        <v>1.3069760761441795</v>
+        <v>885.87554269500004</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
@@ -41815,10 +41815,10 @@
       </c>
       <c r="M412" s="3">
         <f t="shared" si="27"/>
-        <v>1.2773742197472382</v>
+        <v>873.75769766999997</v>
       </c>
       <c r="N412" s="1">
-        <v>1.2773742197472382</v>
+        <v>873.75769766999997</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
@@ -41863,10 +41863,10 @@
       </c>
       <c r="M413" s="3">
         <f t="shared" si="27"/>
-        <v>1.2585689996236247</v>
+        <v>870.35662964250002</v>
       </c>
       <c r="N413" s="1">
-        <v>1.2585689996236247</v>
+        <v>870.35662964250002</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
@@ -41911,10 +41911,10 @@
       </c>
       <c r="M414" s="3">
         <f t="shared" si="27"/>
-        <v>1.2190109262989668</v>
+        <v>852.18807638250007</v>
       </c>
       <c r="N414" s="1">
-        <v>1.2190109262989668</v>
+        <v>852.18807638250007</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
@@ -41959,10 +41959,10 @@
       </c>
       <c r="M415" s="3">
         <f t="shared" si="27"/>
-        <v>1.1809571208453655</v>
+        <v>835.285593285</v>
       </c>
       <c r="N415" s="1">
-        <v>1.1809571208453655</v>
+        <v>835.285593285</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
@@ -42007,10 +42007,10 @@
       </c>
       <c r="M416" s="3">
         <f t="shared" si="27"/>
-        <v>1.1553708123642106</v>
+        <v>825.26893663500005</v>
       </c>
       <c r="N416" s="1">
-        <v>1.1553708123642106</v>
+        <v>825.26893663500005</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
@@ -42055,10 +42055,10 @@
       </c>
       <c r="M417" s="3">
         <f t="shared" si="27"/>
-        <v>1.1183972228637551</v>
+        <v>811.02418897500002</v>
       </c>
       <c r="N417" s="1">
-        <v>1.1183972228637551</v>
+        <v>811.02418897500002</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
@@ -42103,10 +42103,10 @@
       </c>
       <c r="M418" s="3">
         <f t="shared" si="27"/>
-        <v>1.0859405062375065</v>
+        <v>795.86837079750001</v>
       </c>
       <c r="N418" s="1">
-        <v>1.0859405062375065</v>
+        <v>795.86837079750001</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
@@ -42151,10 +42151,10 @@
       </c>
       <c r="M419" s="3">
         <f t="shared" si="27"/>
-        <v>1.0626310859360133</v>
+        <v>787.73385512250002</v>
       </c>
       <c r="N419" s="1">
-        <v>1.0626310859360133</v>
+        <v>787.73385512250002</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
@@ -42199,10 +42199,10 @@
       </c>
       <c r="M420" s="3">
         <f t="shared" si="27"/>
-        <v>1.0406127978280988</v>
+        <v>779.54314902750002</v>
       </c>
       <c r="N420" s="1">
-        <v>1.0406127978280988</v>
+        <v>779.54314902750002</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
@@ -42247,10 +42247,10 @@
       </c>
       <c r="M421" s="3">
         <f t="shared" si="27"/>
-        <v>1.010854231265073</v>
+        <v>766.51042396499997</v>
       </c>
       <c r="N421" s="1">
-        <v>1.010854231265073</v>
+        <v>766.51042396499997</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
@@ -42295,10 +42295,10 @@
       </c>
       <c r="M422" s="3">
         <f t="shared" si="27"/>
-        <v>0.97545668164453125</v>
+        <v>748.64782277999996</v>
       </c>
       <c r="N422" s="1">
-        <v>0.97545668164453125</v>
+        <v>748.64782277999996</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
@@ -42343,10 +42343,10 @@
       </c>
       <c r="M423" s="3">
         <f t="shared" si="27"/>
-        <v>0.95453239482184027</v>
+        <v>742.72390013250003</v>
       </c>
       <c r="N423" s="1">
-        <v>0.95453239482184027</v>
+        <v>742.72390013250003</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
@@ -42391,10 +42391,10 @@
       </c>
       <c r="M424" s="3">
         <f t="shared" si="27"/>
-        <v>0.92957232510316778</v>
+        <v>730.73284069500005</v>
       </c>
       <c r="N424" s="1">
-        <v>0.92957232510316778</v>
+        <v>730.73284069500005</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
@@ -42439,10 +42439,10 @@
       </c>
       <c r="M425" s="3">
         <f t="shared" si="27"/>
-        <v>0.90611048221291979</v>
+        <v>718.95880484999998</v>
       </c>
       <c r="N425" s="1">
-        <v>0.90611048221291979</v>
+        <v>718.95880484999998</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
@@ -42487,10 +42487,10 @@
       </c>
       <c r="M426" s="3">
         <f t="shared" si="27"/>
-        <v>0.88952842552613032</v>
+        <v>712.39000189499995</v>
       </c>
       <c r="N426" s="1">
-        <v>0.88952842552613032</v>
+        <v>712.39000189499995</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
@@ -42535,10 +42535,10 @@
       </c>
       <c r="M427" s="3">
         <f t="shared" si="27"/>
-        <v>0.87383079784677609</v>
+        <v>705.72619903500004</v>
       </c>
       <c r="N427" s="1">
-        <v>0.87383079784677609</v>
+        <v>705.72619903500004</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
@@ -42583,10 +42583,10 @@
       </c>
       <c r="M428" s="3">
         <f t="shared" si="27"/>
-        <v>0.85897105729722512</v>
+        <v>698.97049150500004</v>
       </c>
       <c r="N428" s="1">
-        <v>0.85897105729722512</v>
+        <v>698.97049150500004</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
@@ -42631,10 +42631,10 @@
       </c>
       <c r="M429" s="3">
         <f t="shared" si="27"/>
-        <v>0.84528786232659359</v>
+        <v>691.85978433000002</v>
       </c>
       <c r="N429" s="1">
-        <v>0.84528786232659359</v>
+        <v>691.85978433000002</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
@@ -42679,10 +42679,10 @@
       </c>
       <c r="M430" s="3">
         <f t="shared" si="27"/>
-        <v>0.83688732242227126</v>
+        <v>689.56419138750005</v>
       </c>
       <c r="N430" s="1">
-        <v>0.83688732242227126</v>
+        <v>689.56419138750005</v>
       </c>
     </row>
   </sheetData>

--- a/Data/fuel_consumption_by_ship_size.xlsx
+++ b/Data/fuel_consumption_by_ship_size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\nss-data-analytics\3 Capstone\capstone\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D928A166-9101-4854-9C67-5F1A3BB5976D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1126BD72-5DE2-44A6-B04B-3E65CA037258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{122B9357-4DC1-43F7-9C1B-D0E0C9BBADD0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="37">
   <si>
     <t>Original Data: https://transportgeography.org/contents/chapter4/transportation-and-energy/fuel-consumption-containerships/</t>
   </si>
@@ -101,6 +101,51 @@
   </si>
   <si>
     <t>Ton MPG cleaner</t>
+  </si>
+  <si>
+    <t>Converting knots to MPH = knot*1.15</t>
+  </si>
+  <si>
+    <t>Converting tons/day fuel to gallons/day fuel: https://www.freightwaves.com/news/how-many-gallons-of-fuel-does-a-container-ship-carry</t>
+  </si>
+  <si>
+    <t>1 ton = 748.05 gallons</t>
+  </si>
+  <si>
+    <t>Converting gallons/day to gallons/hour = divide by 24</t>
+  </si>
+  <si>
+    <t>Getting MPG = mph / gallons per hour</t>
+  </si>
+  <si>
+    <t>TEU = twenty foot equivalent unit.  Aka a shipping container</t>
+  </si>
+  <si>
+    <t>Ship size - how many TEUs they carry</t>
+  </si>
+  <si>
+    <t>TEU avg = avg # of TEUs for that size range</t>
+  </si>
+  <si>
+    <t>TEU weight: https://www.soytransportation.org/Stats/Containers_WhatsATEU.pdf</t>
+  </si>
+  <si>
+    <t>maximum dry goods (which food generally is) weight = 47770lbs per container (+5140 for container)</t>
+  </si>
+  <si>
+    <t>total maximum weight = 52910 lbs per TEU</t>
+  </si>
+  <si>
+    <t>Converting weight-lbs to weight tons = lbs/2000</t>
+  </si>
+  <si>
+    <t>Ton MPG = weight of cargo * MPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: for the 10000+ ship size, I used 10000 TEU as their weight.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">many ships are much, much larger than this - with upper limits constantly being pushed higher.  </t>
   </si>
 </sst>
 </file>
@@ -3929,7 +3974,7 @@
   <dimension ref="A1:C430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8678,10 +8723,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE47C722-C418-4280-958A-3F9F45A524C1}">
-  <dimension ref="A1:H430"/>
+  <dimension ref="A1:K430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8689,10 +8734,15 @@
     <col min="1" max="1" width="14.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -8718,7 +8768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -8748,8 +8798,11 @@
         <f>F2/D2</f>
         <v>160.56945161572898</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -8779,8 +8832,11 @@
         <f t="shared" ref="H3:H66" si="4">F3/D3</f>
         <v>163.09063438731209</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8810,8 +8866,11 @@
         <f t="shared" si="4"/>
         <v>166.8787292678019</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -8841,8 +8900,11 @@
         <f t="shared" si="4"/>
         <v>167.70904714564134</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -8872,8 +8934,11 @@
         <f t="shared" si="4"/>
         <v>168.80316746975518</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -8904,7 +8969,7 @@
         <v>172.87784560747653</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -8935,7 +9000,7 @@
         <v>173.76410117092246</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -8966,7 +9031,7 @@
         <v>174.45741143106375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -8997,7 +9062,7 @@
         <v>176.38029467640604</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -9028,7 +9093,7 @@
         <v>178.55855728025819</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -9059,7 +9124,7 @@
         <v>180.71465699251675</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -9090,7 +9155,7 @@
         <v>184.43677967720453</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -9121,7 +9186,7 @@
         <v>186.4456776367557</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -9152,7 +9217,7 @@
         <v>188.62763092538441</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -22024,10 +22089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CF7575-8F61-47B9-BA82-FB4BFCC76B52}">
-  <dimension ref="A1:N430"/>
+  <dimension ref="A1:Q430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22049,7 +22114,7 @@
     <col min="15" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -22093,7 +22158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -22140,8 +22205,11 @@
       <c r="N2" s="1">
         <v>1647.57374925</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -22182,14 +22250,17 @@
         <v>163.0906344</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:N66" si="3">D3*K3</f>
+        <f t="shared" ref="M3:M66" si="3">D3*K3</f>
         <v>1622.104198</v>
       </c>
       <c r="N3" s="1">
         <v>1622.104198</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -22236,8 +22307,11 @@
       <c r="N4" s="1">
         <v>1585.28280625</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -22284,8 +22358,11 @@
       <c r="N5" s="1">
         <v>1577.4344013999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -22332,8 +22409,11 @@
       <c r="N6" s="1">
         <v>1567.2098084499999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -22380,8 +22460,11 @@
       <c r="N7" s="1">
         <v>1530.2712210499999</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -22428,8 +22511,11 @@
       <c r="N8" s="1">
         <v>1522.46646695</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -22476,8 +22562,11 @@
       <c r="N9" s="1">
         <v>1516.4159439</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -22525,7 +22614,7 @@
         <v>1499.8842144</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -22572,8 +22661,11 @@
       <c r="N11" s="1">
         <v>1481.5868782</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -22620,8 +22712,11 @@
       <c r="N12" s="1">
         <v>1463.90991175</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -22669,7 +22764,7 @@
         <v>1434.3668196000001</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -22717,7 +22812,7 @@
         <v>1418.9120731500002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -22765,7 +22860,7 @@
         <v>1402.4985975</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -25254,7 +25349,7 @@
         <v>390.10347969999998</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:N130" si="7">D67*K67</f>
+        <f t="shared" ref="M67:M130" si="7">D67*K67</f>
         <v>678.15329010000005</v>
       </c>
       <c r="N67" s="1">
@@ -28326,7 +28421,7 @@
         <v>275.36267939999999</v>
       </c>
       <c r="M131" s="3">
-        <f t="shared" ref="M131:N194" si="11">D131*K131</f>
+        <f t="shared" ref="M131:M194" si="11">D131*K131</f>
         <v>912.69625661499992</v>
       </c>
       <c r="N131" s="1">
@@ -31398,7 +31493,7 @@
         <v>209.28582460000001</v>
       </c>
       <c r="M195" s="3">
-        <f t="shared" ref="M195:N258" si="15">D195*K195</f>
+        <f t="shared" ref="M195:M258" si="15">D195*K195</f>
         <v>1074.4515445949999</v>
       </c>
       <c r="N195" s="1">
@@ -34470,7 +34565,7 @@
         <v>160.40414079999999</v>
       </c>
       <c r="M259" s="3">
-        <f t="shared" ref="M259:N322" si="19">D259*K259</f>
+        <f t="shared" ref="M259:M322" si="19">D259*K259</f>
         <v>1236.9537233625001</v>
       </c>
       <c r="N259" s="1">
@@ -37542,7 +37637,7 @@
         <v>108.4346</v>
       </c>
       <c r="M323" s="3">
-        <f t="shared" ref="M323:N386" si="23">D323*K323</f>
+        <f t="shared" ref="M323:M386" si="23">D323*K323</f>
         <v>1341.8457348725001</v>
       </c>
       <c r="N323" s="1">
@@ -40614,7 +40709,7 @@
         <v>97.420660780000006</v>
       </c>
       <c r="M387" s="3">
-        <f t="shared" ref="M387:N430" si="27">D387*K387</f>
+        <f t="shared" ref="M387:M430" si="27">D387*K387</f>
         <v>1221.9943732424999</v>
       </c>
       <c r="N387" s="1">
